--- a/Documents/Cord/Cord Documents/4005 FM-TW-02-02 PC Card.xlsx
+++ b/Documents/Cord/Cord Documents/4005 FM-TW-02-02 PC Card.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toraygroup01-my.sharepoint.com/personal/paiboon_mongkollert_e5_mail_toray/Documents/Budget Traeback Cord 2022/DCC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9413FDB-00E2-46E5-823B-CC33D442A2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{10DFF589-C6EA-4AA3-A3A0-2AEB9BE3CAE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="P1671T T" sheetId="1" r:id="rId1"/>
@@ -18,9 +12,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'P1671T T'!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>ใบควบคุมขบวนการผลิต</t>
   </si>
@@ -237,17 +231,20 @@
   </si>
   <si>
     <t>Retention  :  15   year</t>
+  </si>
+  <si>
+    <t>บางอันมี บางอันไม่มี ดูรูปประกอบ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -320,13 +317,6 @@
       <charset val="222"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <name val="AngsanaUPC"/>
-      <family val="1"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="24"/>
       <name val="AngsanaUPC"/>
       <family val="1"/>
@@ -368,8 +358,32 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+      <family val="1"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +408,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="59">
     <border>
@@ -1099,11 +1119,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -1116,29 +1133,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,78 +1146,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1238,73 +1182,52 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1343,20 +1266,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,12 +1311,88 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{49E3321E-856F-4AC4-9832-35F67579C7BB}"/>
-    <cellStyle name="ปกติ_Original" xfId="2" xr:uid="{B58B80A3-0EB6-4138-B315-FCE012498A2A}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ_Original" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1406,7 +1427,7 @@
         <xdr:cNvPr id="2" name="Line 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F858522-3768-476C-AEF9-770603CBF122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F858522-3768-476C-AEF9-770603CBF122}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1454,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -1460,7 +1481,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F0A1F-87EF-440D-A755-0D86EB124BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B2F0A1F-87EF-440D-A755-0D86EB124BBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1620,7 +1641,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1814,1486 +1835,1489 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A08F14-78FA-4EFB-9CF0-5F9523EC724A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.58203125" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="7" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6.4140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.25" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="4.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.4140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="4.9140625" style="6" customWidth="1"/>
-    <col min="14" max="256" width="7.58203125" style="6"/>
-    <col min="257" max="257" width="7" style="6" customWidth="1"/>
-    <col min="258" max="258" width="6.58203125" style="6" customWidth="1"/>
-    <col min="259" max="259" width="6.6640625" style="6" customWidth="1"/>
-    <col min="260" max="260" width="8.58203125" style="6" customWidth="1"/>
-    <col min="261" max="261" width="6.4140625" style="6" customWidth="1"/>
-    <col min="262" max="262" width="6.33203125" style="6" customWidth="1"/>
-    <col min="263" max="263" width="6.75" style="6" customWidth="1"/>
-    <col min="264" max="264" width="7.25" style="6" customWidth="1"/>
-    <col min="265" max="265" width="8.6640625" style="6" customWidth="1"/>
-    <col min="266" max="267" width="4.6640625" style="6" customWidth="1"/>
-    <col min="268" max="268" width="11.4140625" style="6" customWidth="1"/>
-    <col min="269" max="269" width="4.9140625" style="6" customWidth="1"/>
-    <col min="270" max="512" width="7.58203125" style="6"/>
-    <col min="513" max="513" width="7" style="6" customWidth="1"/>
-    <col min="514" max="514" width="6.58203125" style="6" customWidth="1"/>
-    <col min="515" max="515" width="6.6640625" style="6" customWidth="1"/>
-    <col min="516" max="516" width="8.58203125" style="6" customWidth="1"/>
-    <col min="517" max="517" width="6.4140625" style="6" customWidth="1"/>
-    <col min="518" max="518" width="6.33203125" style="6" customWidth="1"/>
-    <col min="519" max="519" width="6.75" style="6" customWidth="1"/>
-    <col min="520" max="520" width="7.25" style="6" customWidth="1"/>
-    <col min="521" max="521" width="8.6640625" style="6" customWidth="1"/>
-    <col min="522" max="523" width="4.6640625" style="6" customWidth="1"/>
-    <col min="524" max="524" width="11.4140625" style="6" customWidth="1"/>
-    <col min="525" max="525" width="4.9140625" style="6" customWidth="1"/>
-    <col min="526" max="768" width="7.58203125" style="6"/>
-    <col min="769" max="769" width="7" style="6" customWidth="1"/>
-    <col min="770" max="770" width="6.58203125" style="6" customWidth="1"/>
-    <col min="771" max="771" width="6.6640625" style="6" customWidth="1"/>
-    <col min="772" max="772" width="8.58203125" style="6" customWidth="1"/>
-    <col min="773" max="773" width="6.4140625" style="6" customWidth="1"/>
-    <col min="774" max="774" width="6.33203125" style="6" customWidth="1"/>
-    <col min="775" max="775" width="6.75" style="6" customWidth="1"/>
-    <col min="776" max="776" width="7.25" style="6" customWidth="1"/>
-    <col min="777" max="777" width="8.6640625" style="6" customWidth="1"/>
-    <col min="778" max="779" width="4.6640625" style="6" customWidth="1"/>
-    <col min="780" max="780" width="11.4140625" style="6" customWidth="1"/>
-    <col min="781" max="781" width="4.9140625" style="6" customWidth="1"/>
-    <col min="782" max="1024" width="7.58203125" style="6"/>
-    <col min="1025" max="1025" width="7" style="6" customWidth="1"/>
-    <col min="1026" max="1026" width="6.58203125" style="6" customWidth="1"/>
-    <col min="1027" max="1027" width="6.6640625" style="6" customWidth="1"/>
-    <col min="1028" max="1028" width="8.58203125" style="6" customWidth="1"/>
-    <col min="1029" max="1029" width="6.4140625" style="6" customWidth="1"/>
-    <col min="1030" max="1030" width="6.33203125" style="6" customWidth="1"/>
-    <col min="1031" max="1031" width="6.75" style="6" customWidth="1"/>
-    <col min="1032" max="1032" width="7.25" style="6" customWidth="1"/>
-    <col min="1033" max="1033" width="8.6640625" style="6" customWidth="1"/>
-    <col min="1034" max="1035" width="4.6640625" style="6" customWidth="1"/>
-    <col min="1036" max="1036" width="11.4140625" style="6" customWidth="1"/>
-    <col min="1037" max="1037" width="4.9140625" style="6" customWidth="1"/>
-    <col min="1038" max="1280" width="7.58203125" style="6"/>
-    <col min="1281" max="1281" width="7" style="6" customWidth="1"/>
-    <col min="1282" max="1282" width="6.58203125" style="6" customWidth="1"/>
-    <col min="1283" max="1283" width="6.6640625" style="6" customWidth="1"/>
-    <col min="1284" max="1284" width="8.58203125" style="6" customWidth="1"/>
-    <col min="1285" max="1285" width="6.4140625" style="6" customWidth="1"/>
-    <col min="1286" max="1286" width="6.33203125" style="6" customWidth="1"/>
-    <col min="1287" max="1287" width="6.75" style="6" customWidth="1"/>
-    <col min="1288" max="1288" width="7.25" style="6" customWidth="1"/>
-    <col min="1289" max="1289" width="8.6640625" style="6" customWidth="1"/>
-    <col min="1290" max="1291" width="4.6640625" style="6" customWidth="1"/>
-    <col min="1292" max="1292" width="11.4140625" style="6" customWidth="1"/>
-    <col min="1293" max="1293" width="4.9140625" style="6" customWidth="1"/>
-    <col min="1294" max="1536" width="7.58203125" style="6"/>
-    <col min="1537" max="1537" width="7" style="6" customWidth="1"/>
-    <col min="1538" max="1538" width="6.58203125" style="6" customWidth="1"/>
-    <col min="1539" max="1539" width="6.6640625" style="6" customWidth="1"/>
-    <col min="1540" max="1540" width="8.58203125" style="6" customWidth="1"/>
-    <col min="1541" max="1541" width="6.4140625" style="6" customWidth="1"/>
-    <col min="1542" max="1542" width="6.33203125" style="6" customWidth="1"/>
-    <col min="1543" max="1543" width="6.75" style="6" customWidth="1"/>
-    <col min="1544" max="1544" width="7.25" style="6" customWidth="1"/>
-    <col min="1545" max="1545" width="8.6640625" style="6" customWidth="1"/>
-    <col min="1546" max="1547" width="4.6640625" style="6" customWidth="1"/>
-    <col min="1548" max="1548" width="11.4140625" style="6" customWidth="1"/>
-    <col min="1549" max="1549" width="4.9140625" style="6" customWidth="1"/>
-    <col min="1550" max="1792" width="7.58203125" style="6"/>
-    <col min="1793" max="1793" width="7" style="6" customWidth="1"/>
-    <col min="1794" max="1794" width="6.58203125" style="6" customWidth="1"/>
-    <col min="1795" max="1795" width="6.6640625" style="6" customWidth="1"/>
-    <col min="1796" max="1796" width="8.58203125" style="6" customWidth="1"/>
-    <col min="1797" max="1797" width="6.4140625" style="6" customWidth="1"/>
-    <col min="1798" max="1798" width="6.33203125" style="6" customWidth="1"/>
-    <col min="1799" max="1799" width="6.75" style="6" customWidth="1"/>
-    <col min="1800" max="1800" width="7.25" style="6" customWidth="1"/>
-    <col min="1801" max="1801" width="8.6640625" style="6" customWidth="1"/>
-    <col min="1802" max="1803" width="4.6640625" style="6" customWidth="1"/>
-    <col min="1804" max="1804" width="11.4140625" style="6" customWidth="1"/>
-    <col min="1805" max="1805" width="4.9140625" style="6" customWidth="1"/>
-    <col min="1806" max="2048" width="7.58203125" style="6"/>
-    <col min="2049" max="2049" width="7" style="6" customWidth="1"/>
-    <col min="2050" max="2050" width="6.58203125" style="6" customWidth="1"/>
-    <col min="2051" max="2051" width="6.6640625" style="6" customWidth="1"/>
-    <col min="2052" max="2052" width="8.58203125" style="6" customWidth="1"/>
-    <col min="2053" max="2053" width="6.4140625" style="6" customWidth="1"/>
-    <col min="2054" max="2054" width="6.33203125" style="6" customWidth="1"/>
-    <col min="2055" max="2055" width="6.75" style="6" customWidth="1"/>
-    <col min="2056" max="2056" width="7.25" style="6" customWidth="1"/>
-    <col min="2057" max="2057" width="8.6640625" style="6" customWidth="1"/>
-    <col min="2058" max="2059" width="4.6640625" style="6" customWidth="1"/>
-    <col min="2060" max="2060" width="11.4140625" style="6" customWidth="1"/>
-    <col min="2061" max="2061" width="4.9140625" style="6" customWidth="1"/>
-    <col min="2062" max="2304" width="7.58203125" style="6"/>
-    <col min="2305" max="2305" width="7" style="6" customWidth="1"/>
-    <col min="2306" max="2306" width="6.58203125" style="6" customWidth="1"/>
-    <col min="2307" max="2307" width="6.6640625" style="6" customWidth="1"/>
-    <col min="2308" max="2308" width="8.58203125" style="6" customWidth="1"/>
-    <col min="2309" max="2309" width="6.4140625" style="6" customWidth="1"/>
-    <col min="2310" max="2310" width="6.33203125" style="6" customWidth="1"/>
-    <col min="2311" max="2311" width="6.75" style="6" customWidth="1"/>
-    <col min="2312" max="2312" width="7.25" style="6" customWidth="1"/>
-    <col min="2313" max="2313" width="8.6640625" style="6" customWidth="1"/>
-    <col min="2314" max="2315" width="4.6640625" style="6" customWidth="1"/>
-    <col min="2316" max="2316" width="11.4140625" style="6" customWidth="1"/>
-    <col min="2317" max="2317" width="4.9140625" style="6" customWidth="1"/>
-    <col min="2318" max="2560" width="7.58203125" style="6"/>
-    <col min="2561" max="2561" width="7" style="6" customWidth="1"/>
-    <col min="2562" max="2562" width="6.58203125" style="6" customWidth="1"/>
-    <col min="2563" max="2563" width="6.6640625" style="6" customWidth="1"/>
-    <col min="2564" max="2564" width="8.58203125" style="6" customWidth="1"/>
-    <col min="2565" max="2565" width="6.4140625" style="6" customWidth="1"/>
-    <col min="2566" max="2566" width="6.33203125" style="6" customWidth="1"/>
-    <col min="2567" max="2567" width="6.75" style="6" customWidth="1"/>
-    <col min="2568" max="2568" width="7.25" style="6" customWidth="1"/>
-    <col min="2569" max="2569" width="8.6640625" style="6" customWidth="1"/>
-    <col min="2570" max="2571" width="4.6640625" style="6" customWidth="1"/>
-    <col min="2572" max="2572" width="11.4140625" style="6" customWidth="1"/>
-    <col min="2573" max="2573" width="4.9140625" style="6" customWidth="1"/>
-    <col min="2574" max="2816" width="7.58203125" style="6"/>
-    <col min="2817" max="2817" width="7" style="6" customWidth="1"/>
-    <col min="2818" max="2818" width="6.58203125" style="6" customWidth="1"/>
-    <col min="2819" max="2819" width="6.6640625" style="6" customWidth="1"/>
-    <col min="2820" max="2820" width="8.58203125" style="6" customWidth="1"/>
-    <col min="2821" max="2821" width="6.4140625" style="6" customWidth="1"/>
-    <col min="2822" max="2822" width="6.33203125" style="6" customWidth="1"/>
-    <col min="2823" max="2823" width="6.75" style="6" customWidth="1"/>
-    <col min="2824" max="2824" width="7.25" style="6" customWidth="1"/>
-    <col min="2825" max="2825" width="8.6640625" style="6" customWidth="1"/>
-    <col min="2826" max="2827" width="4.6640625" style="6" customWidth="1"/>
-    <col min="2828" max="2828" width="11.4140625" style="6" customWidth="1"/>
-    <col min="2829" max="2829" width="4.9140625" style="6" customWidth="1"/>
-    <col min="2830" max="3072" width="7.58203125" style="6"/>
-    <col min="3073" max="3073" width="7" style="6" customWidth="1"/>
-    <col min="3074" max="3074" width="6.58203125" style="6" customWidth="1"/>
-    <col min="3075" max="3075" width="6.6640625" style="6" customWidth="1"/>
-    <col min="3076" max="3076" width="8.58203125" style="6" customWidth="1"/>
-    <col min="3077" max="3077" width="6.4140625" style="6" customWidth="1"/>
-    <col min="3078" max="3078" width="6.33203125" style="6" customWidth="1"/>
-    <col min="3079" max="3079" width="6.75" style="6" customWidth="1"/>
-    <col min="3080" max="3080" width="7.25" style="6" customWidth="1"/>
-    <col min="3081" max="3081" width="8.6640625" style="6" customWidth="1"/>
-    <col min="3082" max="3083" width="4.6640625" style="6" customWidth="1"/>
-    <col min="3084" max="3084" width="11.4140625" style="6" customWidth="1"/>
-    <col min="3085" max="3085" width="4.9140625" style="6" customWidth="1"/>
-    <col min="3086" max="3328" width="7.58203125" style="6"/>
-    <col min="3329" max="3329" width="7" style="6" customWidth="1"/>
-    <col min="3330" max="3330" width="6.58203125" style="6" customWidth="1"/>
-    <col min="3331" max="3331" width="6.6640625" style="6" customWidth="1"/>
-    <col min="3332" max="3332" width="8.58203125" style="6" customWidth="1"/>
-    <col min="3333" max="3333" width="6.4140625" style="6" customWidth="1"/>
-    <col min="3334" max="3334" width="6.33203125" style="6" customWidth="1"/>
-    <col min="3335" max="3335" width="6.75" style="6" customWidth="1"/>
-    <col min="3336" max="3336" width="7.25" style="6" customWidth="1"/>
-    <col min="3337" max="3337" width="8.6640625" style="6" customWidth="1"/>
-    <col min="3338" max="3339" width="4.6640625" style="6" customWidth="1"/>
-    <col min="3340" max="3340" width="11.4140625" style="6" customWidth="1"/>
-    <col min="3341" max="3341" width="4.9140625" style="6" customWidth="1"/>
-    <col min="3342" max="3584" width="7.58203125" style="6"/>
-    <col min="3585" max="3585" width="7" style="6" customWidth="1"/>
-    <col min="3586" max="3586" width="6.58203125" style="6" customWidth="1"/>
-    <col min="3587" max="3587" width="6.6640625" style="6" customWidth="1"/>
-    <col min="3588" max="3588" width="8.58203125" style="6" customWidth="1"/>
-    <col min="3589" max="3589" width="6.4140625" style="6" customWidth="1"/>
-    <col min="3590" max="3590" width="6.33203125" style="6" customWidth="1"/>
-    <col min="3591" max="3591" width="6.75" style="6" customWidth="1"/>
-    <col min="3592" max="3592" width="7.25" style="6" customWidth="1"/>
-    <col min="3593" max="3593" width="8.6640625" style="6" customWidth="1"/>
-    <col min="3594" max="3595" width="4.6640625" style="6" customWidth="1"/>
-    <col min="3596" max="3596" width="11.4140625" style="6" customWidth="1"/>
-    <col min="3597" max="3597" width="4.9140625" style="6" customWidth="1"/>
-    <col min="3598" max="3840" width="7.58203125" style="6"/>
-    <col min="3841" max="3841" width="7" style="6" customWidth="1"/>
-    <col min="3842" max="3842" width="6.58203125" style="6" customWidth="1"/>
-    <col min="3843" max="3843" width="6.6640625" style="6" customWidth="1"/>
-    <col min="3844" max="3844" width="8.58203125" style="6" customWidth="1"/>
-    <col min="3845" max="3845" width="6.4140625" style="6" customWidth="1"/>
-    <col min="3846" max="3846" width="6.33203125" style="6" customWidth="1"/>
-    <col min="3847" max="3847" width="6.75" style="6" customWidth="1"/>
-    <col min="3848" max="3848" width="7.25" style="6" customWidth="1"/>
-    <col min="3849" max="3849" width="8.6640625" style="6" customWidth="1"/>
-    <col min="3850" max="3851" width="4.6640625" style="6" customWidth="1"/>
-    <col min="3852" max="3852" width="11.4140625" style="6" customWidth="1"/>
-    <col min="3853" max="3853" width="4.9140625" style="6" customWidth="1"/>
-    <col min="3854" max="4096" width="7.58203125" style="6"/>
-    <col min="4097" max="4097" width="7" style="6" customWidth="1"/>
-    <col min="4098" max="4098" width="6.58203125" style="6" customWidth="1"/>
-    <col min="4099" max="4099" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4100" max="4100" width="8.58203125" style="6" customWidth="1"/>
-    <col min="4101" max="4101" width="6.4140625" style="6" customWidth="1"/>
-    <col min="4102" max="4102" width="6.33203125" style="6" customWidth="1"/>
-    <col min="4103" max="4103" width="6.75" style="6" customWidth="1"/>
-    <col min="4104" max="4104" width="7.25" style="6" customWidth="1"/>
-    <col min="4105" max="4105" width="8.6640625" style="6" customWidth="1"/>
-    <col min="4106" max="4107" width="4.6640625" style="6" customWidth="1"/>
-    <col min="4108" max="4108" width="11.4140625" style="6" customWidth="1"/>
-    <col min="4109" max="4109" width="4.9140625" style="6" customWidth="1"/>
-    <col min="4110" max="4352" width="7.58203125" style="6"/>
-    <col min="4353" max="4353" width="7" style="6" customWidth="1"/>
-    <col min="4354" max="4354" width="6.58203125" style="6" customWidth="1"/>
-    <col min="4355" max="4355" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4356" max="4356" width="8.58203125" style="6" customWidth="1"/>
-    <col min="4357" max="4357" width="6.4140625" style="6" customWidth="1"/>
-    <col min="4358" max="4358" width="6.33203125" style="6" customWidth="1"/>
-    <col min="4359" max="4359" width="6.75" style="6" customWidth="1"/>
-    <col min="4360" max="4360" width="7.25" style="6" customWidth="1"/>
-    <col min="4361" max="4361" width="8.6640625" style="6" customWidth="1"/>
-    <col min="4362" max="4363" width="4.6640625" style="6" customWidth="1"/>
-    <col min="4364" max="4364" width="11.4140625" style="6" customWidth="1"/>
-    <col min="4365" max="4365" width="4.9140625" style="6" customWidth="1"/>
-    <col min="4366" max="4608" width="7.58203125" style="6"/>
-    <col min="4609" max="4609" width="7" style="6" customWidth="1"/>
-    <col min="4610" max="4610" width="6.58203125" style="6" customWidth="1"/>
-    <col min="4611" max="4611" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4612" max="4612" width="8.58203125" style="6" customWidth="1"/>
-    <col min="4613" max="4613" width="6.4140625" style="6" customWidth="1"/>
-    <col min="4614" max="4614" width="6.33203125" style="6" customWidth="1"/>
-    <col min="4615" max="4615" width="6.75" style="6" customWidth="1"/>
-    <col min="4616" max="4616" width="7.25" style="6" customWidth="1"/>
-    <col min="4617" max="4617" width="8.6640625" style="6" customWidth="1"/>
-    <col min="4618" max="4619" width="4.6640625" style="6" customWidth="1"/>
-    <col min="4620" max="4620" width="11.4140625" style="6" customWidth="1"/>
-    <col min="4621" max="4621" width="4.9140625" style="6" customWidth="1"/>
-    <col min="4622" max="4864" width="7.58203125" style="6"/>
-    <col min="4865" max="4865" width="7" style="6" customWidth="1"/>
-    <col min="4866" max="4866" width="6.58203125" style="6" customWidth="1"/>
-    <col min="4867" max="4867" width="6.6640625" style="6" customWidth="1"/>
-    <col min="4868" max="4868" width="8.58203125" style="6" customWidth="1"/>
-    <col min="4869" max="4869" width="6.4140625" style="6" customWidth="1"/>
-    <col min="4870" max="4870" width="6.33203125" style="6" customWidth="1"/>
-    <col min="4871" max="4871" width="6.75" style="6" customWidth="1"/>
-    <col min="4872" max="4872" width="7.25" style="6" customWidth="1"/>
-    <col min="4873" max="4873" width="8.6640625" style="6" customWidth="1"/>
-    <col min="4874" max="4875" width="4.6640625" style="6" customWidth="1"/>
-    <col min="4876" max="4876" width="11.4140625" style="6" customWidth="1"/>
-    <col min="4877" max="4877" width="4.9140625" style="6" customWidth="1"/>
-    <col min="4878" max="5120" width="7.58203125" style="6"/>
-    <col min="5121" max="5121" width="7" style="6" customWidth="1"/>
-    <col min="5122" max="5122" width="6.58203125" style="6" customWidth="1"/>
-    <col min="5123" max="5123" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5124" max="5124" width="8.58203125" style="6" customWidth="1"/>
-    <col min="5125" max="5125" width="6.4140625" style="6" customWidth="1"/>
-    <col min="5126" max="5126" width="6.33203125" style="6" customWidth="1"/>
-    <col min="5127" max="5127" width="6.75" style="6" customWidth="1"/>
-    <col min="5128" max="5128" width="7.25" style="6" customWidth="1"/>
-    <col min="5129" max="5129" width="8.6640625" style="6" customWidth="1"/>
-    <col min="5130" max="5131" width="4.6640625" style="6" customWidth="1"/>
-    <col min="5132" max="5132" width="11.4140625" style="6" customWidth="1"/>
-    <col min="5133" max="5133" width="4.9140625" style="6" customWidth="1"/>
-    <col min="5134" max="5376" width="7.58203125" style="6"/>
-    <col min="5377" max="5377" width="7" style="6" customWidth="1"/>
-    <col min="5378" max="5378" width="6.58203125" style="6" customWidth="1"/>
-    <col min="5379" max="5379" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5380" max="5380" width="8.58203125" style="6" customWidth="1"/>
-    <col min="5381" max="5381" width="6.4140625" style="6" customWidth="1"/>
-    <col min="5382" max="5382" width="6.33203125" style="6" customWidth="1"/>
-    <col min="5383" max="5383" width="6.75" style="6" customWidth="1"/>
-    <col min="5384" max="5384" width="7.25" style="6" customWidth="1"/>
-    <col min="5385" max="5385" width="8.6640625" style="6" customWidth="1"/>
-    <col min="5386" max="5387" width="4.6640625" style="6" customWidth="1"/>
-    <col min="5388" max="5388" width="11.4140625" style="6" customWidth="1"/>
-    <col min="5389" max="5389" width="4.9140625" style="6" customWidth="1"/>
-    <col min="5390" max="5632" width="7.58203125" style="6"/>
-    <col min="5633" max="5633" width="7" style="6" customWidth="1"/>
-    <col min="5634" max="5634" width="6.58203125" style="6" customWidth="1"/>
-    <col min="5635" max="5635" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5636" max="5636" width="8.58203125" style="6" customWidth="1"/>
-    <col min="5637" max="5637" width="6.4140625" style="6" customWidth="1"/>
-    <col min="5638" max="5638" width="6.33203125" style="6" customWidth="1"/>
-    <col min="5639" max="5639" width="6.75" style="6" customWidth="1"/>
-    <col min="5640" max="5640" width="7.25" style="6" customWidth="1"/>
-    <col min="5641" max="5641" width="8.6640625" style="6" customWidth="1"/>
-    <col min="5642" max="5643" width="4.6640625" style="6" customWidth="1"/>
-    <col min="5644" max="5644" width="11.4140625" style="6" customWidth="1"/>
-    <col min="5645" max="5645" width="4.9140625" style="6" customWidth="1"/>
-    <col min="5646" max="5888" width="7.58203125" style="6"/>
-    <col min="5889" max="5889" width="7" style="6" customWidth="1"/>
-    <col min="5890" max="5890" width="6.58203125" style="6" customWidth="1"/>
-    <col min="5891" max="5891" width="6.6640625" style="6" customWidth="1"/>
-    <col min="5892" max="5892" width="8.58203125" style="6" customWidth="1"/>
-    <col min="5893" max="5893" width="6.4140625" style="6" customWidth="1"/>
-    <col min="5894" max="5894" width="6.33203125" style="6" customWidth="1"/>
-    <col min="5895" max="5895" width="6.75" style="6" customWidth="1"/>
-    <col min="5896" max="5896" width="7.25" style="6" customWidth="1"/>
-    <col min="5897" max="5897" width="8.6640625" style="6" customWidth="1"/>
-    <col min="5898" max="5899" width="4.6640625" style="6" customWidth="1"/>
-    <col min="5900" max="5900" width="11.4140625" style="6" customWidth="1"/>
-    <col min="5901" max="5901" width="4.9140625" style="6" customWidth="1"/>
-    <col min="5902" max="6144" width="7.58203125" style="6"/>
-    <col min="6145" max="6145" width="7" style="6" customWidth="1"/>
-    <col min="6146" max="6146" width="6.58203125" style="6" customWidth="1"/>
-    <col min="6147" max="6147" width="6.6640625" style="6" customWidth="1"/>
-    <col min="6148" max="6148" width="8.58203125" style="6" customWidth="1"/>
-    <col min="6149" max="6149" width="6.4140625" style="6" customWidth="1"/>
-    <col min="6150" max="6150" width="6.33203125" style="6" customWidth="1"/>
-    <col min="6151" max="6151" width="6.75" style="6" customWidth="1"/>
-    <col min="6152" max="6152" width="7.25" style="6" customWidth="1"/>
-    <col min="6153" max="6153" width="8.6640625" style="6" customWidth="1"/>
-    <col min="6154" max="6155" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6156" max="6156" width="11.4140625" style="6" customWidth="1"/>
-    <col min="6157" max="6157" width="4.9140625" style="6" customWidth="1"/>
-    <col min="6158" max="6400" width="7.58203125" style="6"/>
-    <col min="6401" max="6401" width="7" style="6" customWidth="1"/>
-    <col min="6402" max="6402" width="6.58203125" style="6" customWidth="1"/>
-    <col min="6403" max="6403" width="6.6640625" style="6" customWidth="1"/>
-    <col min="6404" max="6404" width="8.58203125" style="6" customWidth="1"/>
-    <col min="6405" max="6405" width="6.4140625" style="6" customWidth="1"/>
-    <col min="6406" max="6406" width="6.33203125" style="6" customWidth="1"/>
-    <col min="6407" max="6407" width="6.75" style="6" customWidth="1"/>
-    <col min="6408" max="6408" width="7.25" style="6" customWidth="1"/>
-    <col min="6409" max="6409" width="8.6640625" style="6" customWidth="1"/>
-    <col min="6410" max="6411" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6412" max="6412" width="11.4140625" style="6" customWidth="1"/>
-    <col min="6413" max="6413" width="4.9140625" style="6" customWidth="1"/>
-    <col min="6414" max="6656" width="7.58203125" style="6"/>
-    <col min="6657" max="6657" width="7" style="6" customWidth="1"/>
-    <col min="6658" max="6658" width="6.58203125" style="6" customWidth="1"/>
-    <col min="6659" max="6659" width="6.6640625" style="6" customWidth="1"/>
-    <col min="6660" max="6660" width="8.58203125" style="6" customWidth="1"/>
-    <col min="6661" max="6661" width="6.4140625" style="6" customWidth="1"/>
-    <col min="6662" max="6662" width="6.33203125" style="6" customWidth="1"/>
-    <col min="6663" max="6663" width="6.75" style="6" customWidth="1"/>
-    <col min="6664" max="6664" width="7.25" style="6" customWidth="1"/>
-    <col min="6665" max="6665" width="8.6640625" style="6" customWidth="1"/>
-    <col min="6666" max="6667" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6668" max="6668" width="11.4140625" style="6" customWidth="1"/>
-    <col min="6669" max="6669" width="4.9140625" style="6" customWidth="1"/>
-    <col min="6670" max="6912" width="7.58203125" style="6"/>
-    <col min="6913" max="6913" width="7" style="6" customWidth="1"/>
-    <col min="6914" max="6914" width="6.58203125" style="6" customWidth="1"/>
-    <col min="6915" max="6915" width="6.6640625" style="6" customWidth="1"/>
-    <col min="6916" max="6916" width="8.58203125" style="6" customWidth="1"/>
-    <col min="6917" max="6917" width="6.4140625" style="6" customWidth="1"/>
-    <col min="6918" max="6918" width="6.33203125" style="6" customWidth="1"/>
-    <col min="6919" max="6919" width="6.75" style="6" customWidth="1"/>
-    <col min="6920" max="6920" width="7.25" style="6" customWidth="1"/>
-    <col min="6921" max="6921" width="8.6640625" style="6" customWidth="1"/>
-    <col min="6922" max="6923" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6924" max="6924" width="11.4140625" style="6" customWidth="1"/>
-    <col min="6925" max="6925" width="4.9140625" style="6" customWidth="1"/>
-    <col min="6926" max="7168" width="7.58203125" style="6"/>
-    <col min="7169" max="7169" width="7" style="6" customWidth="1"/>
-    <col min="7170" max="7170" width="6.58203125" style="6" customWidth="1"/>
-    <col min="7171" max="7171" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7172" max="7172" width="8.58203125" style="6" customWidth="1"/>
-    <col min="7173" max="7173" width="6.4140625" style="6" customWidth="1"/>
-    <col min="7174" max="7174" width="6.33203125" style="6" customWidth="1"/>
-    <col min="7175" max="7175" width="6.75" style="6" customWidth="1"/>
-    <col min="7176" max="7176" width="7.25" style="6" customWidth="1"/>
-    <col min="7177" max="7177" width="8.6640625" style="6" customWidth="1"/>
-    <col min="7178" max="7179" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7180" max="7180" width="11.4140625" style="6" customWidth="1"/>
-    <col min="7181" max="7181" width="4.9140625" style="6" customWidth="1"/>
-    <col min="7182" max="7424" width="7.58203125" style="6"/>
-    <col min="7425" max="7425" width="7" style="6" customWidth="1"/>
-    <col min="7426" max="7426" width="6.58203125" style="6" customWidth="1"/>
-    <col min="7427" max="7427" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7428" max="7428" width="8.58203125" style="6" customWidth="1"/>
-    <col min="7429" max="7429" width="6.4140625" style="6" customWidth="1"/>
-    <col min="7430" max="7430" width="6.33203125" style="6" customWidth="1"/>
-    <col min="7431" max="7431" width="6.75" style="6" customWidth="1"/>
-    <col min="7432" max="7432" width="7.25" style="6" customWidth="1"/>
-    <col min="7433" max="7433" width="8.6640625" style="6" customWidth="1"/>
-    <col min="7434" max="7435" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7436" max="7436" width="11.4140625" style="6" customWidth="1"/>
-    <col min="7437" max="7437" width="4.9140625" style="6" customWidth="1"/>
-    <col min="7438" max="7680" width="7.58203125" style="6"/>
-    <col min="7681" max="7681" width="7" style="6" customWidth="1"/>
-    <col min="7682" max="7682" width="6.58203125" style="6" customWidth="1"/>
-    <col min="7683" max="7683" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7684" max="7684" width="8.58203125" style="6" customWidth="1"/>
-    <col min="7685" max="7685" width="6.4140625" style="6" customWidth="1"/>
-    <col min="7686" max="7686" width="6.33203125" style="6" customWidth="1"/>
-    <col min="7687" max="7687" width="6.75" style="6" customWidth="1"/>
-    <col min="7688" max="7688" width="7.25" style="6" customWidth="1"/>
-    <col min="7689" max="7689" width="8.6640625" style="6" customWidth="1"/>
-    <col min="7690" max="7691" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7692" max="7692" width="11.4140625" style="6" customWidth="1"/>
-    <col min="7693" max="7693" width="4.9140625" style="6" customWidth="1"/>
-    <col min="7694" max="7936" width="7.58203125" style="6"/>
-    <col min="7937" max="7937" width="7" style="6" customWidth="1"/>
-    <col min="7938" max="7938" width="6.58203125" style="6" customWidth="1"/>
-    <col min="7939" max="7939" width="6.6640625" style="6" customWidth="1"/>
-    <col min="7940" max="7940" width="8.58203125" style="6" customWidth="1"/>
-    <col min="7941" max="7941" width="6.4140625" style="6" customWidth="1"/>
-    <col min="7942" max="7942" width="6.33203125" style="6" customWidth="1"/>
-    <col min="7943" max="7943" width="6.75" style="6" customWidth="1"/>
-    <col min="7944" max="7944" width="7.25" style="6" customWidth="1"/>
-    <col min="7945" max="7945" width="8.6640625" style="6" customWidth="1"/>
-    <col min="7946" max="7947" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7948" max="7948" width="11.4140625" style="6" customWidth="1"/>
-    <col min="7949" max="7949" width="4.9140625" style="6" customWidth="1"/>
-    <col min="7950" max="8192" width="7.58203125" style="6"/>
-    <col min="8193" max="8193" width="7" style="6" customWidth="1"/>
-    <col min="8194" max="8194" width="6.58203125" style="6" customWidth="1"/>
-    <col min="8195" max="8195" width="6.6640625" style="6" customWidth="1"/>
-    <col min="8196" max="8196" width="8.58203125" style="6" customWidth="1"/>
-    <col min="8197" max="8197" width="6.4140625" style="6" customWidth="1"/>
-    <col min="8198" max="8198" width="6.33203125" style="6" customWidth="1"/>
-    <col min="8199" max="8199" width="6.75" style="6" customWidth="1"/>
-    <col min="8200" max="8200" width="7.25" style="6" customWidth="1"/>
-    <col min="8201" max="8201" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8202" max="8203" width="4.6640625" style="6" customWidth="1"/>
-    <col min="8204" max="8204" width="11.4140625" style="6" customWidth="1"/>
-    <col min="8205" max="8205" width="4.9140625" style="6" customWidth="1"/>
-    <col min="8206" max="8448" width="7.58203125" style="6"/>
-    <col min="8449" max="8449" width="7" style="6" customWidth="1"/>
-    <col min="8450" max="8450" width="6.58203125" style="6" customWidth="1"/>
-    <col min="8451" max="8451" width="6.6640625" style="6" customWidth="1"/>
-    <col min="8452" max="8452" width="8.58203125" style="6" customWidth="1"/>
-    <col min="8453" max="8453" width="6.4140625" style="6" customWidth="1"/>
-    <col min="8454" max="8454" width="6.33203125" style="6" customWidth="1"/>
-    <col min="8455" max="8455" width="6.75" style="6" customWidth="1"/>
-    <col min="8456" max="8456" width="7.25" style="6" customWidth="1"/>
-    <col min="8457" max="8457" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8458" max="8459" width="4.6640625" style="6" customWidth="1"/>
-    <col min="8460" max="8460" width="11.4140625" style="6" customWidth="1"/>
-    <col min="8461" max="8461" width="4.9140625" style="6" customWidth="1"/>
-    <col min="8462" max="8704" width="7.58203125" style="6"/>
-    <col min="8705" max="8705" width="7" style="6" customWidth="1"/>
-    <col min="8706" max="8706" width="6.58203125" style="6" customWidth="1"/>
-    <col min="8707" max="8707" width="6.6640625" style="6" customWidth="1"/>
-    <col min="8708" max="8708" width="8.58203125" style="6" customWidth="1"/>
-    <col min="8709" max="8709" width="6.4140625" style="6" customWidth="1"/>
-    <col min="8710" max="8710" width="6.33203125" style="6" customWidth="1"/>
-    <col min="8711" max="8711" width="6.75" style="6" customWidth="1"/>
-    <col min="8712" max="8712" width="7.25" style="6" customWidth="1"/>
-    <col min="8713" max="8713" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8714" max="8715" width="4.6640625" style="6" customWidth="1"/>
-    <col min="8716" max="8716" width="11.4140625" style="6" customWidth="1"/>
-    <col min="8717" max="8717" width="4.9140625" style="6" customWidth="1"/>
-    <col min="8718" max="8960" width="7.58203125" style="6"/>
-    <col min="8961" max="8961" width="7" style="6" customWidth="1"/>
-    <col min="8962" max="8962" width="6.58203125" style="6" customWidth="1"/>
-    <col min="8963" max="8963" width="6.6640625" style="6" customWidth="1"/>
-    <col min="8964" max="8964" width="8.58203125" style="6" customWidth="1"/>
-    <col min="8965" max="8965" width="6.4140625" style="6" customWidth="1"/>
-    <col min="8966" max="8966" width="6.33203125" style="6" customWidth="1"/>
-    <col min="8967" max="8967" width="6.75" style="6" customWidth="1"/>
-    <col min="8968" max="8968" width="7.25" style="6" customWidth="1"/>
-    <col min="8969" max="8969" width="8.6640625" style="6" customWidth="1"/>
-    <col min="8970" max="8971" width="4.6640625" style="6" customWidth="1"/>
-    <col min="8972" max="8972" width="11.4140625" style="6" customWidth="1"/>
-    <col min="8973" max="8973" width="4.9140625" style="6" customWidth="1"/>
-    <col min="8974" max="9216" width="7.58203125" style="6"/>
-    <col min="9217" max="9217" width="7" style="6" customWidth="1"/>
-    <col min="9218" max="9218" width="6.58203125" style="6" customWidth="1"/>
-    <col min="9219" max="9219" width="6.6640625" style="6" customWidth="1"/>
-    <col min="9220" max="9220" width="8.58203125" style="6" customWidth="1"/>
-    <col min="9221" max="9221" width="6.4140625" style="6" customWidth="1"/>
-    <col min="9222" max="9222" width="6.33203125" style="6" customWidth="1"/>
-    <col min="9223" max="9223" width="6.75" style="6" customWidth="1"/>
-    <col min="9224" max="9224" width="7.25" style="6" customWidth="1"/>
-    <col min="9225" max="9225" width="8.6640625" style="6" customWidth="1"/>
-    <col min="9226" max="9227" width="4.6640625" style="6" customWidth="1"/>
-    <col min="9228" max="9228" width="11.4140625" style="6" customWidth="1"/>
-    <col min="9229" max="9229" width="4.9140625" style="6" customWidth="1"/>
-    <col min="9230" max="9472" width="7.58203125" style="6"/>
-    <col min="9473" max="9473" width="7" style="6" customWidth="1"/>
-    <col min="9474" max="9474" width="6.58203125" style="6" customWidth="1"/>
-    <col min="9475" max="9475" width="6.6640625" style="6" customWidth="1"/>
-    <col min="9476" max="9476" width="8.58203125" style="6" customWidth="1"/>
-    <col min="9477" max="9477" width="6.4140625" style="6" customWidth="1"/>
-    <col min="9478" max="9478" width="6.33203125" style="6" customWidth="1"/>
-    <col min="9479" max="9479" width="6.75" style="6" customWidth="1"/>
-    <col min="9480" max="9480" width="7.25" style="6" customWidth="1"/>
-    <col min="9481" max="9481" width="8.6640625" style="6" customWidth="1"/>
-    <col min="9482" max="9483" width="4.6640625" style="6" customWidth="1"/>
-    <col min="9484" max="9484" width="11.4140625" style="6" customWidth="1"/>
-    <col min="9485" max="9485" width="4.9140625" style="6" customWidth="1"/>
-    <col min="9486" max="9728" width="7.58203125" style="6"/>
-    <col min="9729" max="9729" width="7" style="6" customWidth="1"/>
-    <col min="9730" max="9730" width="6.58203125" style="6" customWidth="1"/>
-    <col min="9731" max="9731" width="6.6640625" style="6" customWidth="1"/>
-    <col min="9732" max="9732" width="8.58203125" style="6" customWidth="1"/>
-    <col min="9733" max="9733" width="6.4140625" style="6" customWidth="1"/>
-    <col min="9734" max="9734" width="6.33203125" style="6" customWidth="1"/>
-    <col min="9735" max="9735" width="6.75" style="6" customWidth="1"/>
-    <col min="9736" max="9736" width="7.25" style="6" customWidth="1"/>
-    <col min="9737" max="9737" width="8.6640625" style="6" customWidth="1"/>
-    <col min="9738" max="9739" width="4.6640625" style="6" customWidth="1"/>
-    <col min="9740" max="9740" width="11.4140625" style="6" customWidth="1"/>
-    <col min="9741" max="9741" width="4.9140625" style="6" customWidth="1"/>
-    <col min="9742" max="9984" width="7.58203125" style="6"/>
-    <col min="9985" max="9985" width="7" style="6" customWidth="1"/>
-    <col min="9986" max="9986" width="6.58203125" style="6" customWidth="1"/>
-    <col min="9987" max="9987" width="6.6640625" style="6" customWidth="1"/>
-    <col min="9988" max="9988" width="8.58203125" style="6" customWidth="1"/>
-    <col min="9989" max="9989" width="6.4140625" style="6" customWidth="1"/>
-    <col min="9990" max="9990" width="6.33203125" style="6" customWidth="1"/>
-    <col min="9991" max="9991" width="6.75" style="6" customWidth="1"/>
-    <col min="9992" max="9992" width="7.25" style="6" customWidth="1"/>
-    <col min="9993" max="9993" width="8.6640625" style="6" customWidth="1"/>
-    <col min="9994" max="9995" width="4.6640625" style="6" customWidth="1"/>
-    <col min="9996" max="9996" width="11.4140625" style="6" customWidth="1"/>
-    <col min="9997" max="9997" width="4.9140625" style="6" customWidth="1"/>
-    <col min="9998" max="10240" width="7.58203125" style="6"/>
-    <col min="10241" max="10241" width="7" style="6" customWidth="1"/>
-    <col min="10242" max="10242" width="6.58203125" style="6" customWidth="1"/>
-    <col min="10243" max="10243" width="6.6640625" style="6" customWidth="1"/>
-    <col min="10244" max="10244" width="8.58203125" style="6" customWidth="1"/>
-    <col min="10245" max="10245" width="6.4140625" style="6" customWidth="1"/>
-    <col min="10246" max="10246" width="6.33203125" style="6" customWidth="1"/>
-    <col min="10247" max="10247" width="6.75" style="6" customWidth="1"/>
-    <col min="10248" max="10248" width="7.25" style="6" customWidth="1"/>
-    <col min="10249" max="10249" width="8.6640625" style="6" customWidth="1"/>
-    <col min="10250" max="10251" width="4.6640625" style="6" customWidth="1"/>
-    <col min="10252" max="10252" width="11.4140625" style="6" customWidth="1"/>
-    <col min="10253" max="10253" width="4.9140625" style="6" customWidth="1"/>
-    <col min="10254" max="10496" width="7.58203125" style="6"/>
-    <col min="10497" max="10497" width="7" style="6" customWidth="1"/>
-    <col min="10498" max="10498" width="6.58203125" style="6" customWidth="1"/>
-    <col min="10499" max="10499" width="6.6640625" style="6" customWidth="1"/>
-    <col min="10500" max="10500" width="8.58203125" style="6" customWidth="1"/>
-    <col min="10501" max="10501" width="6.4140625" style="6" customWidth="1"/>
-    <col min="10502" max="10502" width="6.33203125" style="6" customWidth="1"/>
-    <col min="10503" max="10503" width="6.75" style="6" customWidth="1"/>
-    <col min="10504" max="10504" width="7.25" style="6" customWidth="1"/>
-    <col min="10505" max="10505" width="8.6640625" style="6" customWidth="1"/>
-    <col min="10506" max="10507" width="4.6640625" style="6" customWidth="1"/>
-    <col min="10508" max="10508" width="11.4140625" style="6" customWidth="1"/>
-    <col min="10509" max="10509" width="4.9140625" style="6" customWidth="1"/>
-    <col min="10510" max="10752" width="7.58203125" style="6"/>
-    <col min="10753" max="10753" width="7" style="6" customWidth="1"/>
-    <col min="10754" max="10754" width="6.58203125" style="6" customWidth="1"/>
-    <col min="10755" max="10755" width="6.6640625" style="6" customWidth="1"/>
-    <col min="10756" max="10756" width="8.58203125" style="6" customWidth="1"/>
-    <col min="10757" max="10757" width="6.4140625" style="6" customWidth="1"/>
-    <col min="10758" max="10758" width="6.33203125" style="6" customWidth="1"/>
-    <col min="10759" max="10759" width="6.75" style="6" customWidth="1"/>
-    <col min="10760" max="10760" width="7.25" style="6" customWidth="1"/>
-    <col min="10761" max="10761" width="8.6640625" style="6" customWidth="1"/>
-    <col min="10762" max="10763" width="4.6640625" style="6" customWidth="1"/>
-    <col min="10764" max="10764" width="11.4140625" style="6" customWidth="1"/>
-    <col min="10765" max="10765" width="4.9140625" style="6" customWidth="1"/>
-    <col min="10766" max="11008" width="7.58203125" style="6"/>
-    <col min="11009" max="11009" width="7" style="6" customWidth="1"/>
-    <col min="11010" max="11010" width="6.58203125" style="6" customWidth="1"/>
-    <col min="11011" max="11011" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11012" max="11012" width="8.58203125" style="6" customWidth="1"/>
-    <col min="11013" max="11013" width="6.4140625" style="6" customWidth="1"/>
-    <col min="11014" max="11014" width="6.33203125" style="6" customWidth="1"/>
-    <col min="11015" max="11015" width="6.75" style="6" customWidth="1"/>
-    <col min="11016" max="11016" width="7.25" style="6" customWidth="1"/>
-    <col min="11017" max="11017" width="8.6640625" style="6" customWidth="1"/>
-    <col min="11018" max="11019" width="4.6640625" style="6" customWidth="1"/>
-    <col min="11020" max="11020" width="11.4140625" style="6" customWidth="1"/>
-    <col min="11021" max="11021" width="4.9140625" style="6" customWidth="1"/>
-    <col min="11022" max="11264" width="7.58203125" style="6"/>
-    <col min="11265" max="11265" width="7" style="6" customWidth="1"/>
-    <col min="11266" max="11266" width="6.58203125" style="6" customWidth="1"/>
-    <col min="11267" max="11267" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11268" max="11268" width="8.58203125" style="6" customWidth="1"/>
-    <col min="11269" max="11269" width="6.4140625" style="6" customWidth="1"/>
-    <col min="11270" max="11270" width="6.33203125" style="6" customWidth="1"/>
-    <col min="11271" max="11271" width="6.75" style="6" customWidth="1"/>
-    <col min="11272" max="11272" width="7.25" style="6" customWidth="1"/>
-    <col min="11273" max="11273" width="8.6640625" style="6" customWidth="1"/>
-    <col min="11274" max="11275" width="4.6640625" style="6" customWidth="1"/>
-    <col min="11276" max="11276" width="11.4140625" style="6" customWidth="1"/>
-    <col min="11277" max="11277" width="4.9140625" style="6" customWidth="1"/>
-    <col min="11278" max="11520" width="7.58203125" style="6"/>
-    <col min="11521" max="11521" width="7" style="6" customWidth="1"/>
-    <col min="11522" max="11522" width="6.58203125" style="6" customWidth="1"/>
-    <col min="11523" max="11523" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11524" max="11524" width="8.58203125" style="6" customWidth="1"/>
-    <col min="11525" max="11525" width="6.4140625" style="6" customWidth="1"/>
-    <col min="11526" max="11526" width="6.33203125" style="6" customWidth="1"/>
-    <col min="11527" max="11527" width="6.75" style="6" customWidth="1"/>
-    <col min="11528" max="11528" width="7.25" style="6" customWidth="1"/>
-    <col min="11529" max="11529" width="8.6640625" style="6" customWidth="1"/>
-    <col min="11530" max="11531" width="4.6640625" style="6" customWidth="1"/>
-    <col min="11532" max="11532" width="11.4140625" style="6" customWidth="1"/>
-    <col min="11533" max="11533" width="4.9140625" style="6" customWidth="1"/>
-    <col min="11534" max="11776" width="7.58203125" style="6"/>
-    <col min="11777" max="11777" width="7" style="6" customWidth="1"/>
-    <col min="11778" max="11778" width="6.58203125" style="6" customWidth="1"/>
-    <col min="11779" max="11779" width="6.6640625" style="6" customWidth="1"/>
-    <col min="11780" max="11780" width="8.58203125" style="6" customWidth="1"/>
-    <col min="11781" max="11781" width="6.4140625" style="6" customWidth="1"/>
-    <col min="11782" max="11782" width="6.33203125" style="6" customWidth="1"/>
-    <col min="11783" max="11783" width="6.75" style="6" customWidth="1"/>
-    <col min="11784" max="11784" width="7.25" style="6" customWidth="1"/>
-    <col min="11785" max="11785" width="8.6640625" style="6" customWidth="1"/>
-    <col min="11786" max="11787" width="4.6640625" style="6" customWidth="1"/>
-    <col min="11788" max="11788" width="11.4140625" style="6" customWidth="1"/>
-    <col min="11789" max="11789" width="4.9140625" style="6" customWidth="1"/>
-    <col min="11790" max="12032" width="7.58203125" style="6"/>
-    <col min="12033" max="12033" width="7" style="6" customWidth="1"/>
-    <col min="12034" max="12034" width="6.58203125" style="6" customWidth="1"/>
-    <col min="12035" max="12035" width="6.6640625" style="6" customWidth="1"/>
-    <col min="12036" max="12036" width="8.58203125" style="6" customWidth="1"/>
-    <col min="12037" max="12037" width="6.4140625" style="6" customWidth="1"/>
-    <col min="12038" max="12038" width="6.33203125" style="6" customWidth="1"/>
-    <col min="12039" max="12039" width="6.75" style="6" customWidth="1"/>
-    <col min="12040" max="12040" width="7.25" style="6" customWidth="1"/>
-    <col min="12041" max="12041" width="8.6640625" style="6" customWidth="1"/>
-    <col min="12042" max="12043" width="4.6640625" style="6" customWidth="1"/>
-    <col min="12044" max="12044" width="11.4140625" style="6" customWidth="1"/>
-    <col min="12045" max="12045" width="4.9140625" style="6" customWidth="1"/>
-    <col min="12046" max="12288" width="7.58203125" style="6"/>
-    <col min="12289" max="12289" width="7" style="6" customWidth="1"/>
-    <col min="12290" max="12290" width="6.58203125" style="6" customWidth="1"/>
-    <col min="12291" max="12291" width="6.6640625" style="6" customWidth="1"/>
-    <col min="12292" max="12292" width="8.58203125" style="6" customWidth="1"/>
-    <col min="12293" max="12293" width="6.4140625" style="6" customWidth="1"/>
-    <col min="12294" max="12294" width="6.33203125" style="6" customWidth="1"/>
-    <col min="12295" max="12295" width="6.75" style="6" customWidth="1"/>
-    <col min="12296" max="12296" width="7.25" style="6" customWidth="1"/>
-    <col min="12297" max="12297" width="8.6640625" style="6" customWidth="1"/>
-    <col min="12298" max="12299" width="4.6640625" style="6" customWidth="1"/>
-    <col min="12300" max="12300" width="11.4140625" style="6" customWidth="1"/>
-    <col min="12301" max="12301" width="4.9140625" style="6" customWidth="1"/>
-    <col min="12302" max="12544" width="7.58203125" style="6"/>
-    <col min="12545" max="12545" width="7" style="6" customWidth="1"/>
-    <col min="12546" max="12546" width="6.58203125" style="6" customWidth="1"/>
-    <col min="12547" max="12547" width="6.6640625" style="6" customWidth="1"/>
-    <col min="12548" max="12548" width="8.58203125" style="6" customWidth="1"/>
-    <col min="12549" max="12549" width="6.4140625" style="6" customWidth="1"/>
-    <col min="12550" max="12550" width="6.33203125" style="6" customWidth="1"/>
-    <col min="12551" max="12551" width="6.75" style="6" customWidth="1"/>
-    <col min="12552" max="12552" width="7.25" style="6" customWidth="1"/>
-    <col min="12553" max="12553" width="8.6640625" style="6" customWidth="1"/>
-    <col min="12554" max="12555" width="4.6640625" style="6" customWidth="1"/>
-    <col min="12556" max="12556" width="11.4140625" style="6" customWidth="1"/>
-    <col min="12557" max="12557" width="4.9140625" style="6" customWidth="1"/>
-    <col min="12558" max="12800" width="7.58203125" style="6"/>
-    <col min="12801" max="12801" width="7" style="6" customWidth="1"/>
-    <col min="12802" max="12802" width="6.58203125" style="6" customWidth="1"/>
-    <col min="12803" max="12803" width="6.6640625" style="6" customWidth="1"/>
-    <col min="12804" max="12804" width="8.58203125" style="6" customWidth="1"/>
-    <col min="12805" max="12805" width="6.4140625" style="6" customWidth="1"/>
-    <col min="12806" max="12806" width="6.33203125" style="6" customWidth="1"/>
-    <col min="12807" max="12807" width="6.75" style="6" customWidth="1"/>
-    <col min="12808" max="12808" width="7.25" style="6" customWidth="1"/>
-    <col min="12809" max="12809" width="8.6640625" style="6" customWidth="1"/>
-    <col min="12810" max="12811" width="4.6640625" style="6" customWidth="1"/>
-    <col min="12812" max="12812" width="11.4140625" style="6" customWidth="1"/>
-    <col min="12813" max="12813" width="4.9140625" style="6" customWidth="1"/>
-    <col min="12814" max="13056" width="7.58203125" style="6"/>
-    <col min="13057" max="13057" width="7" style="6" customWidth="1"/>
-    <col min="13058" max="13058" width="6.58203125" style="6" customWidth="1"/>
-    <col min="13059" max="13059" width="6.6640625" style="6" customWidth="1"/>
-    <col min="13060" max="13060" width="8.58203125" style="6" customWidth="1"/>
-    <col min="13061" max="13061" width="6.4140625" style="6" customWidth="1"/>
-    <col min="13062" max="13062" width="6.33203125" style="6" customWidth="1"/>
-    <col min="13063" max="13063" width="6.75" style="6" customWidth="1"/>
-    <col min="13064" max="13064" width="7.25" style="6" customWidth="1"/>
-    <col min="13065" max="13065" width="8.6640625" style="6" customWidth="1"/>
-    <col min="13066" max="13067" width="4.6640625" style="6" customWidth="1"/>
-    <col min="13068" max="13068" width="11.4140625" style="6" customWidth="1"/>
-    <col min="13069" max="13069" width="4.9140625" style="6" customWidth="1"/>
-    <col min="13070" max="13312" width="7.58203125" style="6"/>
-    <col min="13313" max="13313" width="7" style="6" customWidth="1"/>
-    <col min="13314" max="13314" width="6.58203125" style="6" customWidth="1"/>
-    <col min="13315" max="13315" width="6.6640625" style="6" customWidth="1"/>
-    <col min="13316" max="13316" width="8.58203125" style="6" customWidth="1"/>
-    <col min="13317" max="13317" width="6.4140625" style="6" customWidth="1"/>
-    <col min="13318" max="13318" width="6.33203125" style="6" customWidth="1"/>
-    <col min="13319" max="13319" width="6.75" style="6" customWidth="1"/>
-    <col min="13320" max="13320" width="7.25" style="6" customWidth="1"/>
-    <col min="13321" max="13321" width="8.6640625" style="6" customWidth="1"/>
-    <col min="13322" max="13323" width="4.6640625" style="6" customWidth="1"/>
-    <col min="13324" max="13324" width="11.4140625" style="6" customWidth="1"/>
-    <col min="13325" max="13325" width="4.9140625" style="6" customWidth="1"/>
-    <col min="13326" max="13568" width="7.58203125" style="6"/>
-    <col min="13569" max="13569" width="7" style="6" customWidth="1"/>
-    <col min="13570" max="13570" width="6.58203125" style="6" customWidth="1"/>
-    <col min="13571" max="13571" width="6.6640625" style="6" customWidth="1"/>
-    <col min="13572" max="13572" width="8.58203125" style="6" customWidth="1"/>
-    <col min="13573" max="13573" width="6.4140625" style="6" customWidth="1"/>
-    <col min="13574" max="13574" width="6.33203125" style="6" customWidth="1"/>
-    <col min="13575" max="13575" width="6.75" style="6" customWidth="1"/>
-    <col min="13576" max="13576" width="7.25" style="6" customWidth="1"/>
-    <col min="13577" max="13577" width="8.6640625" style="6" customWidth="1"/>
-    <col min="13578" max="13579" width="4.6640625" style="6" customWidth="1"/>
-    <col min="13580" max="13580" width="11.4140625" style="6" customWidth="1"/>
-    <col min="13581" max="13581" width="4.9140625" style="6" customWidth="1"/>
-    <col min="13582" max="13824" width="7.58203125" style="6"/>
-    <col min="13825" max="13825" width="7" style="6" customWidth="1"/>
-    <col min="13826" max="13826" width="6.58203125" style="6" customWidth="1"/>
-    <col min="13827" max="13827" width="6.6640625" style="6" customWidth="1"/>
-    <col min="13828" max="13828" width="8.58203125" style="6" customWidth="1"/>
-    <col min="13829" max="13829" width="6.4140625" style="6" customWidth="1"/>
-    <col min="13830" max="13830" width="6.33203125" style="6" customWidth="1"/>
-    <col min="13831" max="13831" width="6.75" style="6" customWidth="1"/>
-    <col min="13832" max="13832" width="7.25" style="6" customWidth="1"/>
-    <col min="13833" max="13833" width="8.6640625" style="6" customWidth="1"/>
-    <col min="13834" max="13835" width="4.6640625" style="6" customWidth="1"/>
-    <col min="13836" max="13836" width="11.4140625" style="6" customWidth="1"/>
-    <col min="13837" max="13837" width="4.9140625" style="6" customWidth="1"/>
-    <col min="13838" max="14080" width="7.58203125" style="6"/>
-    <col min="14081" max="14081" width="7" style="6" customWidth="1"/>
-    <col min="14082" max="14082" width="6.58203125" style="6" customWidth="1"/>
-    <col min="14083" max="14083" width="6.6640625" style="6" customWidth="1"/>
-    <col min="14084" max="14084" width="8.58203125" style="6" customWidth="1"/>
-    <col min="14085" max="14085" width="6.4140625" style="6" customWidth="1"/>
-    <col min="14086" max="14086" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14087" max="14087" width="6.75" style="6" customWidth="1"/>
-    <col min="14088" max="14088" width="7.25" style="6" customWidth="1"/>
-    <col min="14089" max="14089" width="8.6640625" style="6" customWidth="1"/>
-    <col min="14090" max="14091" width="4.6640625" style="6" customWidth="1"/>
-    <col min="14092" max="14092" width="11.4140625" style="6" customWidth="1"/>
-    <col min="14093" max="14093" width="4.9140625" style="6" customWidth="1"/>
-    <col min="14094" max="14336" width="7.58203125" style="6"/>
-    <col min="14337" max="14337" width="7" style="6" customWidth="1"/>
-    <col min="14338" max="14338" width="6.58203125" style="6" customWidth="1"/>
-    <col min="14339" max="14339" width="6.6640625" style="6" customWidth="1"/>
-    <col min="14340" max="14340" width="8.58203125" style="6" customWidth="1"/>
-    <col min="14341" max="14341" width="6.4140625" style="6" customWidth="1"/>
-    <col min="14342" max="14342" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14343" max="14343" width="6.75" style="6" customWidth="1"/>
-    <col min="14344" max="14344" width="7.25" style="6" customWidth="1"/>
-    <col min="14345" max="14345" width="8.6640625" style="6" customWidth="1"/>
-    <col min="14346" max="14347" width="4.6640625" style="6" customWidth="1"/>
-    <col min="14348" max="14348" width="11.4140625" style="6" customWidth="1"/>
-    <col min="14349" max="14349" width="4.9140625" style="6" customWidth="1"/>
-    <col min="14350" max="14592" width="7.58203125" style="6"/>
-    <col min="14593" max="14593" width="7" style="6" customWidth="1"/>
-    <col min="14594" max="14594" width="6.58203125" style="6" customWidth="1"/>
-    <col min="14595" max="14595" width="6.6640625" style="6" customWidth="1"/>
-    <col min="14596" max="14596" width="8.58203125" style="6" customWidth="1"/>
-    <col min="14597" max="14597" width="6.4140625" style="6" customWidth="1"/>
-    <col min="14598" max="14598" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14599" max="14599" width="6.75" style="6" customWidth="1"/>
-    <col min="14600" max="14600" width="7.25" style="6" customWidth="1"/>
-    <col min="14601" max="14601" width="8.6640625" style="6" customWidth="1"/>
-    <col min="14602" max="14603" width="4.6640625" style="6" customWidth="1"/>
-    <col min="14604" max="14604" width="11.4140625" style="6" customWidth="1"/>
-    <col min="14605" max="14605" width="4.9140625" style="6" customWidth="1"/>
-    <col min="14606" max="14848" width="7.58203125" style="6"/>
-    <col min="14849" max="14849" width="7" style="6" customWidth="1"/>
-    <col min="14850" max="14850" width="6.58203125" style="6" customWidth="1"/>
-    <col min="14851" max="14851" width="6.6640625" style="6" customWidth="1"/>
-    <col min="14852" max="14852" width="8.58203125" style="6" customWidth="1"/>
-    <col min="14853" max="14853" width="6.4140625" style="6" customWidth="1"/>
-    <col min="14854" max="14854" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14855" max="14855" width="6.75" style="6" customWidth="1"/>
-    <col min="14856" max="14856" width="7.25" style="6" customWidth="1"/>
-    <col min="14857" max="14857" width="8.6640625" style="6" customWidth="1"/>
-    <col min="14858" max="14859" width="4.6640625" style="6" customWidth="1"/>
-    <col min="14860" max="14860" width="11.4140625" style="6" customWidth="1"/>
-    <col min="14861" max="14861" width="4.9140625" style="6" customWidth="1"/>
-    <col min="14862" max="15104" width="7.58203125" style="6"/>
-    <col min="15105" max="15105" width="7" style="6" customWidth="1"/>
-    <col min="15106" max="15106" width="6.58203125" style="6" customWidth="1"/>
-    <col min="15107" max="15107" width="6.6640625" style="6" customWidth="1"/>
-    <col min="15108" max="15108" width="8.58203125" style="6" customWidth="1"/>
-    <col min="15109" max="15109" width="6.4140625" style="6" customWidth="1"/>
-    <col min="15110" max="15110" width="6.33203125" style="6" customWidth="1"/>
-    <col min="15111" max="15111" width="6.75" style="6" customWidth="1"/>
-    <col min="15112" max="15112" width="7.25" style="6" customWidth="1"/>
-    <col min="15113" max="15113" width="8.6640625" style="6" customWidth="1"/>
-    <col min="15114" max="15115" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15116" max="15116" width="11.4140625" style="6" customWidth="1"/>
-    <col min="15117" max="15117" width="4.9140625" style="6" customWidth="1"/>
-    <col min="15118" max="15360" width="7.58203125" style="6"/>
-    <col min="15361" max="15361" width="7" style="6" customWidth="1"/>
-    <col min="15362" max="15362" width="6.58203125" style="6" customWidth="1"/>
-    <col min="15363" max="15363" width="6.6640625" style="6" customWidth="1"/>
-    <col min="15364" max="15364" width="8.58203125" style="6" customWidth="1"/>
-    <col min="15365" max="15365" width="6.4140625" style="6" customWidth="1"/>
-    <col min="15366" max="15366" width="6.33203125" style="6" customWidth="1"/>
-    <col min="15367" max="15367" width="6.75" style="6" customWidth="1"/>
-    <col min="15368" max="15368" width="7.25" style="6" customWidth="1"/>
-    <col min="15369" max="15369" width="8.6640625" style="6" customWidth="1"/>
-    <col min="15370" max="15371" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15372" max="15372" width="11.4140625" style="6" customWidth="1"/>
-    <col min="15373" max="15373" width="4.9140625" style="6" customWidth="1"/>
-    <col min="15374" max="15616" width="7.58203125" style="6"/>
-    <col min="15617" max="15617" width="7" style="6" customWidth="1"/>
-    <col min="15618" max="15618" width="6.58203125" style="6" customWidth="1"/>
-    <col min="15619" max="15619" width="6.6640625" style="6" customWidth="1"/>
-    <col min="15620" max="15620" width="8.58203125" style="6" customWidth="1"/>
-    <col min="15621" max="15621" width="6.4140625" style="6" customWidth="1"/>
-    <col min="15622" max="15622" width="6.33203125" style="6" customWidth="1"/>
-    <col min="15623" max="15623" width="6.75" style="6" customWidth="1"/>
-    <col min="15624" max="15624" width="7.25" style="6" customWidth="1"/>
-    <col min="15625" max="15625" width="8.6640625" style="6" customWidth="1"/>
-    <col min="15626" max="15627" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15628" max="15628" width="11.4140625" style="6" customWidth="1"/>
-    <col min="15629" max="15629" width="4.9140625" style="6" customWidth="1"/>
-    <col min="15630" max="15872" width="7.58203125" style="6"/>
-    <col min="15873" max="15873" width="7" style="6" customWidth="1"/>
-    <col min="15874" max="15874" width="6.58203125" style="6" customWidth="1"/>
-    <col min="15875" max="15875" width="6.6640625" style="6" customWidth="1"/>
-    <col min="15876" max="15876" width="8.58203125" style="6" customWidth="1"/>
-    <col min="15877" max="15877" width="6.4140625" style="6" customWidth="1"/>
-    <col min="15878" max="15878" width="6.33203125" style="6" customWidth="1"/>
-    <col min="15879" max="15879" width="6.75" style="6" customWidth="1"/>
-    <col min="15880" max="15880" width="7.25" style="6" customWidth="1"/>
-    <col min="15881" max="15881" width="8.6640625" style="6" customWidth="1"/>
-    <col min="15882" max="15883" width="4.6640625" style="6" customWidth="1"/>
-    <col min="15884" max="15884" width="11.4140625" style="6" customWidth="1"/>
-    <col min="15885" max="15885" width="4.9140625" style="6" customWidth="1"/>
-    <col min="15886" max="16128" width="7.58203125" style="6"/>
-    <col min="16129" max="16129" width="7" style="6" customWidth="1"/>
-    <col min="16130" max="16130" width="6.58203125" style="6" customWidth="1"/>
-    <col min="16131" max="16131" width="6.6640625" style="6" customWidth="1"/>
-    <col min="16132" max="16132" width="8.58203125" style="6" customWidth="1"/>
-    <col min="16133" max="16133" width="6.4140625" style="6" customWidth="1"/>
-    <col min="16134" max="16134" width="6.33203125" style="6" customWidth="1"/>
-    <col min="16135" max="16135" width="6.75" style="6" customWidth="1"/>
-    <col min="16136" max="16136" width="7.25" style="6" customWidth="1"/>
-    <col min="16137" max="16137" width="8.6640625" style="6" customWidth="1"/>
-    <col min="16138" max="16139" width="4.6640625" style="6" customWidth="1"/>
-    <col min="16140" max="16140" width="11.4140625" style="6" customWidth="1"/>
-    <col min="16141" max="16141" width="4.9140625" style="6" customWidth="1"/>
-    <col min="16142" max="16384" width="7.58203125" style="6"/>
+    <col min="1" max="1" width="7" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="4.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="5" customWidth="1"/>
+    <col min="14" max="256" width="7.5546875" style="5"/>
+    <col min="257" max="257" width="7" style="5" customWidth="1"/>
+    <col min="258" max="258" width="6.5546875" style="5" customWidth="1"/>
+    <col min="259" max="259" width="6.6640625" style="5" customWidth="1"/>
+    <col min="260" max="260" width="8.5546875" style="5" customWidth="1"/>
+    <col min="261" max="261" width="6.44140625" style="5" customWidth="1"/>
+    <col min="262" max="262" width="6.33203125" style="5" customWidth="1"/>
+    <col min="263" max="263" width="6.77734375" style="5" customWidth="1"/>
+    <col min="264" max="264" width="7.21875" style="5" customWidth="1"/>
+    <col min="265" max="265" width="8.6640625" style="5" customWidth="1"/>
+    <col min="266" max="267" width="4.6640625" style="5" customWidth="1"/>
+    <col min="268" max="268" width="11.44140625" style="5" customWidth="1"/>
+    <col min="269" max="269" width="4.88671875" style="5" customWidth="1"/>
+    <col min="270" max="512" width="7.5546875" style="5"/>
+    <col min="513" max="513" width="7" style="5" customWidth="1"/>
+    <col min="514" max="514" width="6.5546875" style="5" customWidth="1"/>
+    <col min="515" max="515" width="6.6640625" style="5" customWidth="1"/>
+    <col min="516" max="516" width="8.5546875" style="5" customWidth="1"/>
+    <col min="517" max="517" width="6.44140625" style="5" customWidth="1"/>
+    <col min="518" max="518" width="6.33203125" style="5" customWidth="1"/>
+    <col min="519" max="519" width="6.77734375" style="5" customWidth="1"/>
+    <col min="520" max="520" width="7.21875" style="5" customWidth="1"/>
+    <col min="521" max="521" width="8.6640625" style="5" customWidth="1"/>
+    <col min="522" max="523" width="4.6640625" style="5" customWidth="1"/>
+    <col min="524" max="524" width="11.44140625" style="5" customWidth="1"/>
+    <col min="525" max="525" width="4.88671875" style="5" customWidth="1"/>
+    <col min="526" max="768" width="7.5546875" style="5"/>
+    <col min="769" max="769" width="7" style="5" customWidth="1"/>
+    <col min="770" max="770" width="6.5546875" style="5" customWidth="1"/>
+    <col min="771" max="771" width="6.6640625" style="5" customWidth="1"/>
+    <col min="772" max="772" width="8.5546875" style="5" customWidth="1"/>
+    <col min="773" max="773" width="6.44140625" style="5" customWidth="1"/>
+    <col min="774" max="774" width="6.33203125" style="5" customWidth="1"/>
+    <col min="775" max="775" width="6.77734375" style="5" customWidth="1"/>
+    <col min="776" max="776" width="7.21875" style="5" customWidth="1"/>
+    <col min="777" max="777" width="8.6640625" style="5" customWidth="1"/>
+    <col min="778" max="779" width="4.6640625" style="5" customWidth="1"/>
+    <col min="780" max="780" width="11.44140625" style="5" customWidth="1"/>
+    <col min="781" max="781" width="4.88671875" style="5" customWidth="1"/>
+    <col min="782" max="1024" width="7.5546875" style="5"/>
+    <col min="1025" max="1025" width="7" style="5" customWidth="1"/>
+    <col min="1026" max="1026" width="6.5546875" style="5" customWidth="1"/>
+    <col min="1027" max="1027" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1028" max="1028" width="8.5546875" style="5" customWidth="1"/>
+    <col min="1029" max="1029" width="6.44140625" style="5" customWidth="1"/>
+    <col min="1030" max="1030" width="6.33203125" style="5" customWidth="1"/>
+    <col min="1031" max="1031" width="6.77734375" style="5" customWidth="1"/>
+    <col min="1032" max="1032" width="7.21875" style="5" customWidth="1"/>
+    <col min="1033" max="1033" width="8.6640625" style="5" customWidth="1"/>
+    <col min="1034" max="1035" width="4.6640625" style="5" customWidth="1"/>
+    <col min="1036" max="1036" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1037" max="1037" width="4.88671875" style="5" customWidth="1"/>
+    <col min="1038" max="1280" width="7.5546875" style="5"/>
+    <col min="1281" max="1281" width="7" style="5" customWidth="1"/>
+    <col min="1282" max="1282" width="6.5546875" style="5" customWidth="1"/>
+    <col min="1283" max="1283" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1284" max="1284" width="8.5546875" style="5" customWidth="1"/>
+    <col min="1285" max="1285" width="6.44140625" style="5" customWidth="1"/>
+    <col min="1286" max="1286" width="6.33203125" style="5" customWidth="1"/>
+    <col min="1287" max="1287" width="6.77734375" style="5" customWidth="1"/>
+    <col min="1288" max="1288" width="7.21875" style="5" customWidth="1"/>
+    <col min="1289" max="1289" width="8.6640625" style="5" customWidth="1"/>
+    <col min="1290" max="1291" width="4.6640625" style="5" customWidth="1"/>
+    <col min="1292" max="1292" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1293" max="1293" width="4.88671875" style="5" customWidth="1"/>
+    <col min="1294" max="1536" width="7.5546875" style="5"/>
+    <col min="1537" max="1537" width="7" style="5" customWidth="1"/>
+    <col min="1538" max="1538" width="6.5546875" style="5" customWidth="1"/>
+    <col min="1539" max="1539" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1540" max="1540" width="8.5546875" style="5" customWidth="1"/>
+    <col min="1541" max="1541" width="6.44140625" style="5" customWidth="1"/>
+    <col min="1542" max="1542" width="6.33203125" style="5" customWidth="1"/>
+    <col min="1543" max="1543" width="6.77734375" style="5" customWidth="1"/>
+    <col min="1544" max="1544" width="7.21875" style="5" customWidth="1"/>
+    <col min="1545" max="1545" width="8.6640625" style="5" customWidth="1"/>
+    <col min="1546" max="1547" width="4.6640625" style="5" customWidth="1"/>
+    <col min="1548" max="1548" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1549" max="1549" width="4.88671875" style="5" customWidth="1"/>
+    <col min="1550" max="1792" width="7.5546875" style="5"/>
+    <col min="1793" max="1793" width="7" style="5" customWidth="1"/>
+    <col min="1794" max="1794" width="6.5546875" style="5" customWidth="1"/>
+    <col min="1795" max="1795" width="6.6640625" style="5" customWidth="1"/>
+    <col min="1796" max="1796" width="8.5546875" style="5" customWidth="1"/>
+    <col min="1797" max="1797" width="6.44140625" style="5" customWidth="1"/>
+    <col min="1798" max="1798" width="6.33203125" style="5" customWidth="1"/>
+    <col min="1799" max="1799" width="6.77734375" style="5" customWidth="1"/>
+    <col min="1800" max="1800" width="7.21875" style="5" customWidth="1"/>
+    <col min="1801" max="1801" width="8.6640625" style="5" customWidth="1"/>
+    <col min="1802" max="1803" width="4.6640625" style="5" customWidth="1"/>
+    <col min="1804" max="1804" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1805" max="1805" width="4.88671875" style="5" customWidth="1"/>
+    <col min="1806" max="2048" width="7.5546875" style="5"/>
+    <col min="2049" max="2049" width="7" style="5" customWidth="1"/>
+    <col min="2050" max="2050" width="6.5546875" style="5" customWidth="1"/>
+    <col min="2051" max="2051" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2052" max="2052" width="8.5546875" style="5" customWidth="1"/>
+    <col min="2053" max="2053" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2054" max="2054" width="6.33203125" style="5" customWidth="1"/>
+    <col min="2055" max="2055" width="6.77734375" style="5" customWidth="1"/>
+    <col min="2056" max="2056" width="7.21875" style="5" customWidth="1"/>
+    <col min="2057" max="2057" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2058" max="2059" width="4.6640625" style="5" customWidth="1"/>
+    <col min="2060" max="2060" width="11.44140625" style="5" customWidth="1"/>
+    <col min="2061" max="2061" width="4.88671875" style="5" customWidth="1"/>
+    <col min="2062" max="2304" width="7.5546875" style="5"/>
+    <col min="2305" max="2305" width="7" style="5" customWidth="1"/>
+    <col min="2306" max="2306" width="6.5546875" style="5" customWidth="1"/>
+    <col min="2307" max="2307" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2308" max="2308" width="8.5546875" style="5" customWidth="1"/>
+    <col min="2309" max="2309" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2310" max="2310" width="6.33203125" style="5" customWidth="1"/>
+    <col min="2311" max="2311" width="6.77734375" style="5" customWidth="1"/>
+    <col min="2312" max="2312" width="7.21875" style="5" customWidth="1"/>
+    <col min="2313" max="2313" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2314" max="2315" width="4.6640625" style="5" customWidth="1"/>
+    <col min="2316" max="2316" width="11.44140625" style="5" customWidth="1"/>
+    <col min="2317" max="2317" width="4.88671875" style="5" customWidth="1"/>
+    <col min="2318" max="2560" width="7.5546875" style="5"/>
+    <col min="2561" max="2561" width="7" style="5" customWidth="1"/>
+    <col min="2562" max="2562" width="6.5546875" style="5" customWidth="1"/>
+    <col min="2563" max="2563" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2564" max="2564" width="8.5546875" style="5" customWidth="1"/>
+    <col min="2565" max="2565" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2566" max="2566" width="6.33203125" style="5" customWidth="1"/>
+    <col min="2567" max="2567" width="6.77734375" style="5" customWidth="1"/>
+    <col min="2568" max="2568" width="7.21875" style="5" customWidth="1"/>
+    <col min="2569" max="2569" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2570" max="2571" width="4.6640625" style="5" customWidth="1"/>
+    <col min="2572" max="2572" width="11.44140625" style="5" customWidth="1"/>
+    <col min="2573" max="2573" width="4.88671875" style="5" customWidth="1"/>
+    <col min="2574" max="2816" width="7.5546875" style="5"/>
+    <col min="2817" max="2817" width="7" style="5" customWidth="1"/>
+    <col min="2818" max="2818" width="6.5546875" style="5" customWidth="1"/>
+    <col min="2819" max="2819" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2820" max="2820" width="8.5546875" style="5" customWidth="1"/>
+    <col min="2821" max="2821" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2822" max="2822" width="6.33203125" style="5" customWidth="1"/>
+    <col min="2823" max="2823" width="6.77734375" style="5" customWidth="1"/>
+    <col min="2824" max="2824" width="7.21875" style="5" customWidth="1"/>
+    <col min="2825" max="2825" width="8.6640625" style="5" customWidth="1"/>
+    <col min="2826" max="2827" width="4.6640625" style="5" customWidth="1"/>
+    <col min="2828" max="2828" width="11.44140625" style="5" customWidth="1"/>
+    <col min="2829" max="2829" width="4.88671875" style="5" customWidth="1"/>
+    <col min="2830" max="3072" width="7.5546875" style="5"/>
+    <col min="3073" max="3073" width="7" style="5" customWidth="1"/>
+    <col min="3074" max="3074" width="6.5546875" style="5" customWidth="1"/>
+    <col min="3075" max="3075" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3076" max="3076" width="8.5546875" style="5" customWidth="1"/>
+    <col min="3077" max="3077" width="6.44140625" style="5" customWidth="1"/>
+    <col min="3078" max="3078" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3079" max="3079" width="6.77734375" style="5" customWidth="1"/>
+    <col min="3080" max="3080" width="7.21875" style="5" customWidth="1"/>
+    <col min="3081" max="3081" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3082" max="3083" width="4.6640625" style="5" customWidth="1"/>
+    <col min="3084" max="3084" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3085" max="3085" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3086" max="3328" width="7.5546875" style="5"/>
+    <col min="3329" max="3329" width="7" style="5" customWidth="1"/>
+    <col min="3330" max="3330" width="6.5546875" style="5" customWidth="1"/>
+    <col min="3331" max="3331" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3332" max="3332" width="8.5546875" style="5" customWidth="1"/>
+    <col min="3333" max="3333" width="6.44140625" style="5" customWidth="1"/>
+    <col min="3334" max="3334" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3335" max="3335" width="6.77734375" style="5" customWidth="1"/>
+    <col min="3336" max="3336" width="7.21875" style="5" customWidth="1"/>
+    <col min="3337" max="3337" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3338" max="3339" width="4.6640625" style="5" customWidth="1"/>
+    <col min="3340" max="3340" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3341" max="3341" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3342" max="3584" width="7.5546875" style="5"/>
+    <col min="3585" max="3585" width="7" style="5" customWidth="1"/>
+    <col min="3586" max="3586" width="6.5546875" style="5" customWidth="1"/>
+    <col min="3587" max="3587" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3588" max="3588" width="8.5546875" style="5" customWidth="1"/>
+    <col min="3589" max="3589" width="6.44140625" style="5" customWidth="1"/>
+    <col min="3590" max="3590" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3591" max="3591" width="6.77734375" style="5" customWidth="1"/>
+    <col min="3592" max="3592" width="7.21875" style="5" customWidth="1"/>
+    <col min="3593" max="3593" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3594" max="3595" width="4.6640625" style="5" customWidth="1"/>
+    <col min="3596" max="3596" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3597" max="3597" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3598" max="3840" width="7.5546875" style="5"/>
+    <col min="3841" max="3841" width="7" style="5" customWidth="1"/>
+    <col min="3842" max="3842" width="6.5546875" style="5" customWidth="1"/>
+    <col min="3843" max="3843" width="6.6640625" style="5" customWidth="1"/>
+    <col min="3844" max="3844" width="8.5546875" style="5" customWidth="1"/>
+    <col min="3845" max="3845" width="6.44140625" style="5" customWidth="1"/>
+    <col min="3846" max="3846" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3847" max="3847" width="6.77734375" style="5" customWidth="1"/>
+    <col min="3848" max="3848" width="7.21875" style="5" customWidth="1"/>
+    <col min="3849" max="3849" width="8.6640625" style="5" customWidth="1"/>
+    <col min="3850" max="3851" width="4.6640625" style="5" customWidth="1"/>
+    <col min="3852" max="3852" width="11.44140625" style="5" customWidth="1"/>
+    <col min="3853" max="3853" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3854" max="4096" width="7.5546875" style="5"/>
+    <col min="4097" max="4097" width="7" style="5" customWidth="1"/>
+    <col min="4098" max="4098" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4099" max="4099" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4100" max="4100" width="8.5546875" style="5" customWidth="1"/>
+    <col min="4101" max="4101" width="6.44140625" style="5" customWidth="1"/>
+    <col min="4102" max="4102" width="6.33203125" style="5" customWidth="1"/>
+    <col min="4103" max="4103" width="6.77734375" style="5" customWidth="1"/>
+    <col min="4104" max="4104" width="7.21875" style="5" customWidth="1"/>
+    <col min="4105" max="4105" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4106" max="4107" width="4.6640625" style="5" customWidth="1"/>
+    <col min="4108" max="4108" width="11.44140625" style="5" customWidth="1"/>
+    <col min="4109" max="4109" width="4.88671875" style="5" customWidth="1"/>
+    <col min="4110" max="4352" width="7.5546875" style="5"/>
+    <col min="4353" max="4353" width="7" style="5" customWidth="1"/>
+    <col min="4354" max="4354" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4355" max="4355" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4356" max="4356" width="8.5546875" style="5" customWidth="1"/>
+    <col min="4357" max="4357" width="6.44140625" style="5" customWidth="1"/>
+    <col min="4358" max="4358" width="6.33203125" style="5" customWidth="1"/>
+    <col min="4359" max="4359" width="6.77734375" style="5" customWidth="1"/>
+    <col min="4360" max="4360" width="7.21875" style="5" customWidth="1"/>
+    <col min="4361" max="4361" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4362" max="4363" width="4.6640625" style="5" customWidth="1"/>
+    <col min="4364" max="4364" width="11.44140625" style="5" customWidth="1"/>
+    <col min="4365" max="4365" width="4.88671875" style="5" customWidth="1"/>
+    <col min="4366" max="4608" width="7.5546875" style="5"/>
+    <col min="4609" max="4609" width="7" style="5" customWidth="1"/>
+    <col min="4610" max="4610" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4611" max="4611" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4612" max="4612" width="8.5546875" style="5" customWidth="1"/>
+    <col min="4613" max="4613" width="6.44140625" style="5" customWidth="1"/>
+    <col min="4614" max="4614" width="6.33203125" style="5" customWidth="1"/>
+    <col min="4615" max="4615" width="6.77734375" style="5" customWidth="1"/>
+    <col min="4616" max="4616" width="7.21875" style="5" customWidth="1"/>
+    <col min="4617" max="4617" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4618" max="4619" width="4.6640625" style="5" customWidth="1"/>
+    <col min="4620" max="4620" width="11.44140625" style="5" customWidth="1"/>
+    <col min="4621" max="4621" width="4.88671875" style="5" customWidth="1"/>
+    <col min="4622" max="4864" width="7.5546875" style="5"/>
+    <col min="4865" max="4865" width="7" style="5" customWidth="1"/>
+    <col min="4866" max="4866" width="6.5546875" style="5" customWidth="1"/>
+    <col min="4867" max="4867" width="6.6640625" style="5" customWidth="1"/>
+    <col min="4868" max="4868" width="8.5546875" style="5" customWidth="1"/>
+    <col min="4869" max="4869" width="6.44140625" style="5" customWidth="1"/>
+    <col min="4870" max="4870" width="6.33203125" style="5" customWidth="1"/>
+    <col min="4871" max="4871" width="6.77734375" style="5" customWidth="1"/>
+    <col min="4872" max="4872" width="7.21875" style="5" customWidth="1"/>
+    <col min="4873" max="4873" width="8.6640625" style="5" customWidth="1"/>
+    <col min="4874" max="4875" width="4.6640625" style="5" customWidth="1"/>
+    <col min="4876" max="4876" width="11.44140625" style="5" customWidth="1"/>
+    <col min="4877" max="4877" width="4.88671875" style="5" customWidth="1"/>
+    <col min="4878" max="5120" width="7.5546875" style="5"/>
+    <col min="5121" max="5121" width="7" style="5" customWidth="1"/>
+    <col min="5122" max="5122" width="6.5546875" style="5" customWidth="1"/>
+    <col min="5123" max="5123" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5124" max="5124" width="8.5546875" style="5" customWidth="1"/>
+    <col min="5125" max="5125" width="6.44140625" style="5" customWidth="1"/>
+    <col min="5126" max="5126" width="6.33203125" style="5" customWidth="1"/>
+    <col min="5127" max="5127" width="6.77734375" style="5" customWidth="1"/>
+    <col min="5128" max="5128" width="7.21875" style="5" customWidth="1"/>
+    <col min="5129" max="5129" width="8.6640625" style="5" customWidth="1"/>
+    <col min="5130" max="5131" width="4.6640625" style="5" customWidth="1"/>
+    <col min="5132" max="5132" width="11.44140625" style="5" customWidth="1"/>
+    <col min="5133" max="5133" width="4.88671875" style="5" customWidth="1"/>
+    <col min="5134" max="5376" width="7.5546875" style="5"/>
+    <col min="5377" max="5377" width="7" style="5" customWidth="1"/>
+    <col min="5378" max="5378" width="6.5546875" style="5" customWidth="1"/>
+    <col min="5379" max="5379" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5380" max="5380" width="8.5546875" style="5" customWidth="1"/>
+    <col min="5381" max="5381" width="6.44140625" style="5" customWidth="1"/>
+    <col min="5382" max="5382" width="6.33203125" style="5" customWidth="1"/>
+    <col min="5383" max="5383" width="6.77734375" style="5" customWidth="1"/>
+    <col min="5384" max="5384" width="7.21875" style="5" customWidth="1"/>
+    <col min="5385" max="5385" width="8.6640625" style="5" customWidth="1"/>
+    <col min="5386" max="5387" width="4.6640625" style="5" customWidth="1"/>
+    <col min="5388" max="5388" width="11.44140625" style="5" customWidth="1"/>
+    <col min="5389" max="5389" width="4.88671875" style="5" customWidth="1"/>
+    <col min="5390" max="5632" width="7.5546875" style="5"/>
+    <col min="5633" max="5633" width="7" style="5" customWidth="1"/>
+    <col min="5634" max="5634" width="6.5546875" style="5" customWidth="1"/>
+    <col min="5635" max="5635" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5636" max="5636" width="8.5546875" style="5" customWidth="1"/>
+    <col min="5637" max="5637" width="6.44140625" style="5" customWidth="1"/>
+    <col min="5638" max="5638" width="6.33203125" style="5" customWidth="1"/>
+    <col min="5639" max="5639" width="6.77734375" style="5" customWidth="1"/>
+    <col min="5640" max="5640" width="7.21875" style="5" customWidth="1"/>
+    <col min="5641" max="5641" width="8.6640625" style="5" customWidth="1"/>
+    <col min="5642" max="5643" width="4.6640625" style="5" customWidth="1"/>
+    <col min="5644" max="5644" width="11.44140625" style="5" customWidth="1"/>
+    <col min="5645" max="5645" width="4.88671875" style="5" customWidth="1"/>
+    <col min="5646" max="5888" width="7.5546875" style="5"/>
+    <col min="5889" max="5889" width="7" style="5" customWidth="1"/>
+    <col min="5890" max="5890" width="6.5546875" style="5" customWidth="1"/>
+    <col min="5891" max="5891" width="6.6640625" style="5" customWidth="1"/>
+    <col min="5892" max="5892" width="8.5546875" style="5" customWidth="1"/>
+    <col min="5893" max="5893" width="6.44140625" style="5" customWidth="1"/>
+    <col min="5894" max="5894" width="6.33203125" style="5" customWidth="1"/>
+    <col min="5895" max="5895" width="6.77734375" style="5" customWidth="1"/>
+    <col min="5896" max="5896" width="7.21875" style="5" customWidth="1"/>
+    <col min="5897" max="5897" width="8.6640625" style="5" customWidth="1"/>
+    <col min="5898" max="5899" width="4.6640625" style="5" customWidth="1"/>
+    <col min="5900" max="5900" width="11.44140625" style="5" customWidth="1"/>
+    <col min="5901" max="5901" width="4.88671875" style="5" customWidth="1"/>
+    <col min="5902" max="6144" width="7.5546875" style="5"/>
+    <col min="6145" max="6145" width="7" style="5" customWidth="1"/>
+    <col min="6146" max="6146" width="6.5546875" style="5" customWidth="1"/>
+    <col min="6147" max="6147" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6148" max="6148" width="8.5546875" style="5" customWidth="1"/>
+    <col min="6149" max="6149" width="6.44140625" style="5" customWidth="1"/>
+    <col min="6150" max="6150" width="6.33203125" style="5" customWidth="1"/>
+    <col min="6151" max="6151" width="6.77734375" style="5" customWidth="1"/>
+    <col min="6152" max="6152" width="7.21875" style="5" customWidth="1"/>
+    <col min="6153" max="6153" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6154" max="6155" width="4.6640625" style="5" customWidth="1"/>
+    <col min="6156" max="6156" width="11.44140625" style="5" customWidth="1"/>
+    <col min="6157" max="6157" width="4.88671875" style="5" customWidth="1"/>
+    <col min="6158" max="6400" width="7.5546875" style="5"/>
+    <col min="6401" max="6401" width="7" style="5" customWidth="1"/>
+    <col min="6402" max="6402" width="6.5546875" style="5" customWidth="1"/>
+    <col min="6403" max="6403" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6404" max="6404" width="8.5546875" style="5" customWidth="1"/>
+    <col min="6405" max="6405" width="6.44140625" style="5" customWidth="1"/>
+    <col min="6406" max="6406" width="6.33203125" style="5" customWidth="1"/>
+    <col min="6407" max="6407" width="6.77734375" style="5" customWidth="1"/>
+    <col min="6408" max="6408" width="7.21875" style="5" customWidth="1"/>
+    <col min="6409" max="6409" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6410" max="6411" width="4.6640625" style="5" customWidth="1"/>
+    <col min="6412" max="6412" width="11.44140625" style="5" customWidth="1"/>
+    <col min="6413" max="6413" width="4.88671875" style="5" customWidth="1"/>
+    <col min="6414" max="6656" width="7.5546875" style="5"/>
+    <col min="6657" max="6657" width="7" style="5" customWidth="1"/>
+    <col min="6658" max="6658" width="6.5546875" style="5" customWidth="1"/>
+    <col min="6659" max="6659" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6660" max="6660" width="8.5546875" style="5" customWidth="1"/>
+    <col min="6661" max="6661" width="6.44140625" style="5" customWidth="1"/>
+    <col min="6662" max="6662" width="6.33203125" style="5" customWidth="1"/>
+    <col min="6663" max="6663" width="6.77734375" style="5" customWidth="1"/>
+    <col min="6664" max="6664" width="7.21875" style="5" customWidth="1"/>
+    <col min="6665" max="6665" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6666" max="6667" width="4.6640625" style="5" customWidth="1"/>
+    <col min="6668" max="6668" width="11.44140625" style="5" customWidth="1"/>
+    <col min="6669" max="6669" width="4.88671875" style="5" customWidth="1"/>
+    <col min="6670" max="6912" width="7.5546875" style="5"/>
+    <col min="6913" max="6913" width="7" style="5" customWidth="1"/>
+    <col min="6914" max="6914" width="6.5546875" style="5" customWidth="1"/>
+    <col min="6915" max="6915" width="6.6640625" style="5" customWidth="1"/>
+    <col min="6916" max="6916" width="8.5546875" style="5" customWidth="1"/>
+    <col min="6917" max="6917" width="6.44140625" style="5" customWidth="1"/>
+    <col min="6918" max="6918" width="6.33203125" style="5" customWidth="1"/>
+    <col min="6919" max="6919" width="6.77734375" style="5" customWidth="1"/>
+    <col min="6920" max="6920" width="7.21875" style="5" customWidth="1"/>
+    <col min="6921" max="6921" width="8.6640625" style="5" customWidth="1"/>
+    <col min="6922" max="6923" width="4.6640625" style="5" customWidth="1"/>
+    <col min="6924" max="6924" width="11.44140625" style="5" customWidth="1"/>
+    <col min="6925" max="6925" width="4.88671875" style="5" customWidth="1"/>
+    <col min="6926" max="7168" width="7.5546875" style="5"/>
+    <col min="7169" max="7169" width="7" style="5" customWidth="1"/>
+    <col min="7170" max="7170" width="6.5546875" style="5" customWidth="1"/>
+    <col min="7171" max="7171" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7172" max="7172" width="8.5546875" style="5" customWidth="1"/>
+    <col min="7173" max="7173" width="6.44140625" style="5" customWidth="1"/>
+    <col min="7174" max="7174" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7175" max="7175" width="6.77734375" style="5" customWidth="1"/>
+    <col min="7176" max="7176" width="7.21875" style="5" customWidth="1"/>
+    <col min="7177" max="7177" width="8.6640625" style="5" customWidth="1"/>
+    <col min="7178" max="7179" width="4.6640625" style="5" customWidth="1"/>
+    <col min="7180" max="7180" width="11.44140625" style="5" customWidth="1"/>
+    <col min="7181" max="7181" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7182" max="7424" width="7.5546875" style="5"/>
+    <col min="7425" max="7425" width="7" style="5" customWidth="1"/>
+    <col min="7426" max="7426" width="6.5546875" style="5" customWidth="1"/>
+    <col min="7427" max="7427" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7428" max="7428" width="8.5546875" style="5" customWidth="1"/>
+    <col min="7429" max="7429" width="6.44140625" style="5" customWidth="1"/>
+    <col min="7430" max="7430" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7431" max="7431" width="6.77734375" style="5" customWidth="1"/>
+    <col min="7432" max="7432" width="7.21875" style="5" customWidth="1"/>
+    <col min="7433" max="7433" width="8.6640625" style="5" customWidth="1"/>
+    <col min="7434" max="7435" width="4.6640625" style="5" customWidth="1"/>
+    <col min="7436" max="7436" width="11.44140625" style="5" customWidth="1"/>
+    <col min="7437" max="7437" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7438" max="7680" width="7.5546875" style="5"/>
+    <col min="7681" max="7681" width="7" style="5" customWidth="1"/>
+    <col min="7682" max="7682" width="6.5546875" style="5" customWidth="1"/>
+    <col min="7683" max="7683" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7684" max="7684" width="8.5546875" style="5" customWidth="1"/>
+    <col min="7685" max="7685" width="6.44140625" style="5" customWidth="1"/>
+    <col min="7686" max="7686" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7687" max="7687" width="6.77734375" style="5" customWidth="1"/>
+    <col min="7688" max="7688" width="7.21875" style="5" customWidth="1"/>
+    <col min="7689" max="7689" width="8.6640625" style="5" customWidth="1"/>
+    <col min="7690" max="7691" width="4.6640625" style="5" customWidth="1"/>
+    <col min="7692" max="7692" width="11.44140625" style="5" customWidth="1"/>
+    <col min="7693" max="7693" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7694" max="7936" width="7.5546875" style="5"/>
+    <col min="7937" max="7937" width="7" style="5" customWidth="1"/>
+    <col min="7938" max="7938" width="6.5546875" style="5" customWidth="1"/>
+    <col min="7939" max="7939" width="6.6640625" style="5" customWidth="1"/>
+    <col min="7940" max="7940" width="8.5546875" style="5" customWidth="1"/>
+    <col min="7941" max="7941" width="6.44140625" style="5" customWidth="1"/>
+    <col min="7942" max="7942" width="6.33203125" style="5" customWidth="1"/>
+    <col min="7943" max="7943" width="6.77734375" style="5" customWidth="1"/>
+    <col min="7944" max="7944" width="7.21875" style="5" customWidth="1"/>
+    <col min="7945" max="7945" width="8.6640625" style="5" customWidth="1"/>
+    <col min="7946" max="7947" width="4.6640625" style="5" customWidth="1"/>
+    <col min="7948" max="7948" width="11.44140625" style="5" customWidth="1"/>
+    <col min="7949" max="7949" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7950" max="8192" width="7.5546875" style="5"/>
+    <col min="8193" max="8193" width="7" style="5" customWidth="1"/>
+    <col min="8194" max="8194" width="6.5546875" style="5" customWidth="1"/>
+    <col min="8195" max="8195" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8196" max="8196" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8197" max="8197" width="6.44140625" style="5" customWidth="1"/>
+    <col min="8198" max="8198" width="6.33203125" style="5" customWidth="1"/>
+    <col min="8199" max="8199" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8200" max="8200" width="7.21875" style="5" customWidth="1"/>
+    <col min="8201" max="8201" width="8.6640625" style="5" customWidth="1"/>
+    <col min="8202" max="8203" width="4.6640625" style="5" customWidth="1"/>
+    <col min="8204" max="8204" width="11.44140625" style="5" customWidth="1"/>
+    <col min="8205" max="8205" width="4.88671875" style="5" customWidth="1"/>
+    <col min="8206" max="8448" width="7.5546875" style="5"/>
+    <col min="8449" max="8449" width="7" style="5" customWidth="1"/>
+    <col min="8450" max="8450" width="6.5546875" style="5" customWidth="1"/>
+    <col min="8451" max="8451" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8452" max="8452" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8453" max="8453" width="6.44140625" style="5" customWidth="1"/>
+    <col min="8454" max="8454" width="6.33203125" style="5" customWidth="1"/>
+    <col min="8455" max="8455" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8456" max="8456" width="7.21875" style="5" customWidth="1"/>
+    <col min="8457" max="8457" width="8.6640625" style="5" customWidth="1"/>
+    <col min="8458" max="8459" width="4.6640625" style="5" customWidth="1"/>
+    <col min="8460" max="8460" width="11.44140625" style="5" customWidth="1"/>
+    <col min="8461" max="8461" width="4.88671875" style="5" customWidth="1"/>
+    <col min="8462" max="8704" width="7.5546875" style="5"/>
+    <col min="8705" max="8705" width="7" style="5" customWidth="1"/>
+    <col min="8706" max="8706" width="6.5546875" style="5" customWidth="1"/>
+    <col min="8707" max="8707" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8708" max="8708" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8709" max="8709" width="6.44140625" style="5" customWidth="1"/>
+    <col min="8710" max="8710" width="6.33203125" style="5" customWidth="1"/>
+    <col min="8711" max="8711" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8712" max="8712" width="7.21875" style="5" customWidth="1"/>
+    <col min="8713" max="8713" width="8.6640625" style="5" customWidth="1"/>
+    <col min="8714" max="8715" width="4.6640625" style="5" customWidth="1"/>
+    <col min="8716" max="8716" width="11.44140625" style="5" customWidth="1"/>
+    <col min="8717" max="8717" width="4.88671875" style="5" customWidth="1"/>
+    <col min="8718" max="8960" width="7.5546875" style="5"/>
+    <col min="8961" max="8961" width="7" style="5" customWidth="1"/>
+    <col min="8962" max="8962" width="6.5546875" style="5" customWidth="1"/>
+    <col min="8963" max="8963" width="6.6640625" style="5" customWidth="1"/>
+    <col min="8964" max="8964" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8965" max="8965" width="6.44140625" style="5" customWidth="1"/>
+    <col min="8966" max="8966" width="6.33203125" style="5" customWidth="1"/>
+    <col min="8967" max="8967" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8968" max="8968" width="7.21875" style="5" customWidth="1"/>
+    <col min="8969" max="8969" width="8.6640625" style="5" customWidth="1"/>
+    <col min="8970" max="8971" width="4.6640625" style="5" customWidth="1"/>
+    <col min="8972" max="8972" width="11.44140625" style="5" customWidth="1"/>
+    <col min="8973" max="8973" width="4.88671875" style="5" customWidth="1"/>
+    <col min="8974" max="9216" width="7.5546875" style="5"/>
+    <col min="9217" max="9217" width="7" style="5" customWidth="1"/>
+    <col min="9218" max="9218" width="6.5546875" style="5" customWidth="1"/>
+    <col min="9219" max="9219" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9220" max="9220" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9221" max="9221" width="6.44140625" style="5" customWidth="1"/>
+    <col min="9222" max="9222" width="6.33203125" style="5" customWidth="1"/>
+    <col min="9223" max="9223" width="6.77734375" style="5" customWidth="1"/>
+    <col min="9224" max="9224" width="7.21875" style="5" customWidth="1"/>
+    <col min="9225" max="9225" width="8.6640625" style="5" customWidth="1"/>
+    <col min="9226" max="9227" width="4.6640625" style="5" customWidth="1"/>
+    <col min="9228" max="9228" width="11.44140625" style="5" customWidth="1"/>
+    <col min="9229" max="9229" width="4.88671875" style="5" customWidth="1"/>
+    <col min="9230" max="9472" width="7.5546875" style="5"/>
+    <col min="9473" max="9473" width="7" style="5" customWidth="1"/>
+    <col min="9474" max="9474" width="6.5546875" style="5" customWidth="1"/>
+    <col min="9475" max="9475" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9476" max="9476" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9477" max="9477" width="6.44140625" style="5" customWidth="1"/>
+    <col min="9478" max="9478" width="6.33203125" style="5" customWidth="1"/>
+    <col min="9479" max="9479" width="6.77734375" style="5" customWidth="1"/>
+    <col min="9480" max="9480" width="7.21875" style="5" customWidth="1"/>
+    <col min="9481" max="9481" width="8.6640625" style="5" customWidth="1"/>
+    <col min="9482" max="9483" width="4.6640625" style="5" customWidth="1"/>
+    <col min="9484" max="9484" width="11.44140625" style="5" customWidth="1"/>
+    <col min="9485" max="9485" width="4.88671875" style="5" customWidth="1"/>
+    <col min="9486" max="9728" width="7.5546875" style="5"/>
+    <col min="9729" max="9729" width="7" style="5" customWidth="1"/>
+    <col min="9730" max="9730" width="6.5546875" style="5" customWidth="1"/>
+    <col min="9731" max="9731" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9732" max="9732" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9733" max="9733" width="6.44140625" style="5" customWidth="1"/>
+    <col min="9734" max="9734" width="6.33203125" style="5" customWidth="1"/>
+    <col min="9735" max="9735" width="6.77734375" style="5" customWidth="1"/>
+    <col min="9736" max="9736" width="7.21875" style="5" customWidth="1"/>
+    <col min="9737" max="9737" width="8.6640625" style="5" customWidth="1"/>
+    <col min="9738" max="9739" width="4.6640625" style="5" customWidth="1"/>
+    <col min="9740" max="9740" width="11.44140625" style="5" customWidth="1"/>
+    <col min="9741" max="9741" width="4.88671875" style="5" customWidth="1"/>
+    <col min="9742" max="9984" width="7.5546875" style="5"/>
+    <col min="9985" max="9985" width="7" style="5" customWidth="1"/>
+    <col min="9986" max="9986" width="6.5546875" style="5" customWidth="1"/>
+    <col min="9987" max="9987" width="6.6640625" style="5" customWidth="1"/>
+    <col min="9988" max="9988" width="8.5546875" style="5" customWidth="1"/>
+    <col min="9989" max="9989" width="6.44140625" style="5" customWidth="1"/>
+    <col min="9990" max="9990" width="6.33203125" style="5" customWidth="1"/>
+    <col min="9991" max="9991" width="6.77734375" style="5" customWidth="1"/>
+    <col min="9992" max="9992" width="7.21875" style="5" customWidth="1"/>
+    <col min="9993" max="9993" width="8.6640625" style="5" customWidth="1"/>
+    <col min="9994" max="9995" width="4.6640625" style="5" customWidth="1"/>
+    <col min="9996" max="9996" width="11.44140625" style="5" customWidth="1"/>
+    <col min="9997" max="9997" width="4.88671875" style="5" customWidth="1"/>
+    <col min="9998" max="10240" width="7.5546875" style="5"/>
+    <col min="10241" max="10241" width="7" style="5" customWidth="1"/>
+    <col min="10242" max="10242" width="6.5546875" style="5" customWidth="1"/>
+    <col min="10243" max="10243" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10244" max="10244" width="8.5546875" style="5" customWidth="1"/>
+    <col min="10245" max="10245" width="6.44140625" style="5" customWidth="1"/>
+    <col min="10246" max="10246" width="6.33203125" style="5" customWidth="1"/>
+    <col min="10247" max="10247" width="6.77734375" style="5" customWidth="1"/>
+    <col min="10248" max="10248" width="7.21875" style="5" customWidth="1"/>
+    <col min="10249" max="10249" width="8.6640625" style="5" customWidth="1"/>
+    <col min="10250" max="10251" width="4.6640625" style="5" customWidth="1"/>
+    <col min="10252" max="10252" width="11.44140625" style="5" customWidth="1"/>
+    <col min="10253" max="10253" width="4.88671875" style="5" customWidth="1"/>
+    <col min="10254" max="10496" width="7.5546875" style="5"/>
+    <col min="10497" max="10497" width="7" style="5" customWidth="1"/>
+    <col min="10498" max="10498" width="6.5546875" style="5" customWidth="1"/>
+    <col min="10499" max="10499" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10500" max="10500" width="8.5546875" style="5" customWidth="1"/>
+    <col min="10501" max="10501" width="6.44140625" style="5" customWidth="1"/>
+    <col min="10502" max="10502" width="6.33203125" style="5" customWidth="1"/>
+    <col min="10503" max="10503" width="6.77734375" style="5" customWidth="1"/>
+    <col min="10504" max="10504" width="7.21875" style="5" customWidth="1"/>
+    <col min="10505" max="10505" width="8.6640625" style="5" customWidth="1"/>
+    <col min="10506" max="10507" width="4.6640625" style="5" customWidth="1"/>
+    <col min="10508" max="10508" width="11.44140625" style="5" customWidth="1"/>
+    <col min="10509" max="10509" width="4.88671875" style="5" customWidth="1"/>
+    <col min="10510" max="10752" width="7.5546875" style="5"/>
+    <col min="10753" max="10753" width="7" style="5" customWidth="1"/>
+    <col min="10754" max="10754" width="6.5546875" style="5" customWidth="1"/>
+    <col min="10755" max="10755" width="6.6640625" style="5" customWidth="1"/>
+    <col min="10756" max="10756" width="8.5546875" style="5" customWidth="1"/>
+    <col min="10757" max="10757" width="6.44140625" style="5" customWidth="1"/>
+    <col min="10758" max="10758" width="6.33203125" style="5" customWidth="1"/>
+    <col min="10759" max="10759" width="6.77734375" style="5" customWidth="1"/>
+    <col min="10760" max="10760" width="7.21875" style="5" customWidth="1"/>
+    <col min="10761" max="10761" width="8.6640625" style="5" customWidth="1"/>
+    <col min="10762" max="10763" width="4.6640625" style="5" customWidth="1"/>
+    <col min="10764" max="10764" width="11.44140625" style="5" customWidth="1"/>
+    <col min="10765" max="10765" width="4.88671875" style="5" customWidth="1"/>
+    <col min="10766" max="11008" width="7.5546875" style="5"/>
+    <col min="11009" max="11009" width="7" style="5" customWidth="1"/>
+    <col min="11010" max="11010" width="6.5546875" style="5" customWidth="1"/>
+    <col min="11011" max="11011" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11012" max="11012" width="8.5546875" style="5" customWidth="1"/>
+    <col min="11013" max="11013" width="6.44140625" style="5" customWidth="1"/>
+    <col min="11014" max="11014" width="6.33203125" style="5" customWidth="1"/>
+    <col min="11015" max="11015" width="6.77734375" style="5" customWidth="1"/>
+    <col min="11016" max="11016" width="7.21875" style="5" customWidth="1"/>
+    <col min="11017" max="11017" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11018" max="11019" width="4.6640625" style="5" customWidth="1"/>
+    <col min="11020" max="11020" width="11.44140625" style="5" customWidth="1"/>
+    <col min="11021" max="11021" width="4.88671875" style="5" customWidth="1"/>
+    <col min="11022" max="11264" width="7.5546875" style="5"/>
+    <col min="11265" max="11265" width="7" style="5" customWidth="1"/>
+    <col min="11266" max="11266" width="6.5546875" style="5" customWidth="1"/>
+    <col min="11267" max="11267" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11268" max="11268" width="8.5546875" style="5" customWidth="1"/>
+    <col min="11269" max="11269" width="6.44140625" style="5" customWidth="1"/>
+    <col min="11270" max="11270" width="6.33203125" style="5" customWidth="1"/>
+    <col min="11271" max="11271" width="6.77734375" style="5" customWidth="1"/>
+    <col min="11272" max="11272" width="7.21875" style="5" customWidth="1"/>
+    <col min="11273" max="11273" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11274" max="11275" width="4.6640625" style="5" customWidth="1"/>
+    <col min="11276" max="11276" width="11.44140625" style="5" customWidth="1"/>
+    <col min="11277" max="11277" width="4.88671875" style="5" customWidth="1"/>
+    <col min="11278" max="11520" width="7.5546875" style="5"/>
+    <col min="11521" max="11521" width="7" style="5" customWidth="1"/>
+    <col min="11522" max="11522" width="6.5546875" style="5" customWidth="1"/>
+    <col min="11523" max="11523" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11524" max="11524" width="8.5546875" style="5" customWidth="1"/>
+    <col min="11525" max="11525" width="6.44140625" style="5" customWidth="1"/>
+    <col min="11526" max="11526" width="6.33203125" style="5" customWidth="1"/>
+    <col min="11527" max="11527" width="6.77734375" style="5" customWidth="1"/>
+    <col min="11528" max="11528" width="7.21875" style="5" customWidth="1"/>
+    <col min="11529" max="11529" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11530" max="11531" width="4.6640625" style="5" customWidth="1"/>
+    <col min="11532" max="11532" width="11.44140625" style="5" customWidth="1"/>
+    <col min="11533" max="11533" width="4.88671875" style="5" customWidth="1"/>
+    <col min="11534" max="11776" width="7.5546875" style="5"/>
+    <col min="11777" max="11777" width="7" style="5" customWidth="1"/>
+    <col min="11778" max="11778" width="6.5546875" style="5" customWidth="1"/>
+    <col min="11779" max="11779" width="6.6640625" style="5" customWidth="1"/>
+    <col min="11780" max="11780" width="8.5546875" style="5" customWidth="1"/>
+    <col min="11781" max="11781" width="6.44140625" style="5" customWidth="1"/>
+    <col min="11782" max="11782" width="6.33203125" style="5" customWidth="1"/>
+    <col min="11783" max="11783" width="6.77734375" style="5" customWidth="1"/>
+    <col min="11784" max="11784" width="7.21875" style="5" customWidth="1"/>
+    <col min="11785" max="11785" width="8.6640625" style="5" customWidth="1"/>
+    <col min="11786" max="11787" width="4.6640625" style="5" customWidth="1"/>
+    <col min="11788" max="11788" width="11.44140625" style="5" customWidth="1"/>
+    <col min="11789" max="11789" width="4.88671875" style="5" customWidth="1"/>
+    <col min="11790" max="12032" width="7.5546875" style="5"/>
+    <col min="12033" max="12033" width="7" style="5" customWidth="1"/>
+    <col min="12034" max="12034" width="6.5546875" style="5" customWidth="1"/>
+    <col min="12035" max="12035" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12036" max="12036" width="8.5546875" style="5" customWidth="1"/>
+    <col min="12037" max="12037" width="6.44140625" style="5" customWidth="1"/>
+    <col min="12038" max="12038" width="6.33203125" style="5" customWidth="1"/>
+    <col min="12039" max="12039" width="6.77734375" style="5" customWidth="1"/>
+    <col min="12040" max="12040" width="7.21875" style="5" customWidth="1"/>
+    <col min="12041" max="12041" width="8.6640625" style="5" customWidth="1"/>
+    <col min="12042" max="12043" width="4.6640625" style="5" customWidth="1"/>
+    <col min="12044" max="12044" width="11.44140625" style="5" customWidth="1"/>
+    <col min="12045" max="12045" width="4.88671875" style="5" customWidth="1"/>
+    <col min="12046" max="12288" width="7.5546875" style="5"/>
+    <col min="12289" max="12289" width="7" style="5" customWidth="1"/>
+    <col min="12290" max="12290" width="6.5546875" style="5" customWidth="1"/>
+    <col min="12291" max="12291" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12292" max="12292" width="8.5546875" style="5" customWidth="1"/>
+    <col min="12293" max="12293" width="6.44140625" style="5" customWidth="1"/>
+    <col min="12294" max="12294" width="6.33203125" style="5" customWidth="1"/>
+    <col min="12295" max="12295" width="6.77734375" style="5" customWidth="1"/>
+    <col min="12296" max="12296" width="7.21875" style="5" customWidth="1"/>
+    <col min="12297" max="12297" width="8.6640625" style="5" customWidth="1"/>
+    <col min="12298" max="12299" width="4.6640625" style="5" customWidth="1"/>
+    <col min="12300" max="12300" width="11.44140625" style="5" customWidth="1"/>
+    <col min="12301" max="12301" width="4.88671875" style="5" customWidth="1"/>
+    <col min="12302" max="12544" width="7.5546875" style="5"/>
+    <col min="12545" max="12545" width="7" style="5" customWidth="1"/>
+    <col min="12546" max="12546" width="6.5546875" style="5" customWidth="1"/>
+    <col min="12547" max="12547" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12548" max="12548" width="8.5546875" style="5" customWidth="1"/>
+    <col min="12549" max="12549" width="6.44140625" style="5" customWidth="1"/>
+    <col min="12550" max="12550" width="6.33203125" style="5" customWidth="1"/>
+    <col min="12551" max="12551" width="6.77734375" style="5" customWidth="1"/>
+    <col min="12552" max="12552" width="7.21875" style="5" customWidth="1"/>
+    <col min="12553" max="12553" width="8.6640625" style="5" customWidth="1"/>
+    <col min="12554" max="12555" width="4.6640625" style="5" customWidth="1"/>
+    <col min="12556" max="12556" width="11.44140625" style="5" customWidth="1"/>
+    <col min="12557" max="12557" width="4.88671875" style="5" customWidth="1"/>
+    <col min="12558" max="12800" width="7.5546875" style="5"/>
+    <col min="12801" max="12801" width="7" style="5" customWidth="1"/>
+    <col min="12802" max="12802" width="6.5546875" style="5" customWidth="1"/>
+    <col min="12803" max="12803" width="6.6640625" style="5" customWidth="1"/>
+    <col min="12804" max="12804" width="8.5546875" style="5" customWidth="1"/>
+    <col min="12805" max="12805" width="6.44140625" style="5" customWidth="1"/>
+    <col min="12806" max="12806" width="6.33203125" style="5" customWidth="1"/>
+    <col min="12807" max="12807" width="6.77734375" style="5" customWidth="1"/>
+    <col min="12808" max="12808" width="7.21875" style="5" customWidth="1"/>
+    <col min="12809" max="12809" width="8.6640625" style="5" customWidth="1"/>
+    <col min="12810" max="12811" width="4.6640625" style="5" customWidth="1"/>
+    <col min="12812" max="12812" width="11.44140625" style="5" customWidth="1"/>
+    <col min="12813" max="12813" width="4.88671875" style="5" customWidth="1"/>
+    <col min="12814" max="13056" width="7.5546875" style="5"/>
+    <col min="13057" max="13057" width="7" style="5" customWidth="1"/>
+    <col min="13058" max="13058" width="6.5546875" style="5" customWidth="1"/>
+    <col min="13059" max="13059" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13060" max="13060" width="8.5546875" style="5" customWidth="1"/>
+    <col min="13061" max="13061" width="6.44140625" style="5" customWidth="1"/>
+    <col min="13062" max="13062" width="6.33203125" style="5" customWidth="1"/>
+    <col min="13063" max="13063" width="6.77734375" style="5" customWidth="1"/>
+    <col min="13064" max="13064" width="7.21875" style="5" customWidth="1"/>
+    <col min="13065" max="13065" width="8.6640625" style="5" customWidth="1"/>
+    <col min="13066" max="13067" width="4.6640625" style="5" customWidth="1"/>
+    <col min="13068" max="13068" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13069" max="13069" width="4.88671875" style="5" customWidth="1"/>
+    <col min="13070" max="13312" width="7.5546875" style="5"/>
+    <col min="13313" max="13313" width="7" style="5" customWidth="1"/>
+    <col min="13314" max="13314" width="6.5546875" style="5" customWidth="1"/>
+    <col min="13315" max="13315" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13316" max="13316" width="8.5546875" style="5" customWidth="1"/>
+    <col min="13317" max="13317" width="6.44140625" style="5" customWidth="1"/>
+    <col min="13318" max="13318" width="6.33203125" style="5" customWidth="1"/>
+    <col min="13319" max="13319" width="6.77734375" style="5" customWidth="1"/>
+    <col min="13320" max="13320" width="7.21875" style="5" customWidth="1"/>
+    <col min="13321" max="13321" width="8.6640625" style="5" customWidth="1"/>
+    <col min="13322" max="13323" width="4.6640625" style="5" customWidth="1"/>
+    <col min="13324" max="13324" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13325" max="13325" width="4.88671875" style="5" customWidth="1"/>
+    <col min="13326" max="13568" width="7.5546875" style="5"/>
+    <col min="13569" max="13569" width="7" style="5" customWidth="1"/>
+    <col min="13570" max="13570" width="6.5546875" style="5" customWidth="1"/>
+    <col min="13571" max="13571" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13572" max="13572" width="8.5546875" style="5" customWidth="1"/>
+    <col min="13573" max="13573" width="6.44140625" style="5" customWidth="1"/>
+    <col min="13574" max="13574" width="6.33203125" style="5" customWidth="1"/>
+    <col min="13575" max="13575" width="6.77734375" style="5" customWidth="1"/>
+    <col min="13576" max="13576" width="7.21875" style="5" customWidth="1"/>
+    <col min="13577" max="13577" width="8.6640625" style="5" customWidth="1"/>
+    <col min="13578" max="13579" width="4.6640625" style="5" customWidth="1"/>
+    <col min="13580" max="13580" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13581" max="13581" width="4.88671875" style="5" customWidth="1"/>
+    <col min="13582" max="13824" width="7.5546875" style="5"/>
+    <col min="13825" max="13825" width="7" style="5" customWidth="1"/>
+    <col min="13826" max="13826" width="6.5546875" style="5" customWidth="1"/>
+    <col min="13827" max="13827" width="6.6640625" style="5" customWidth="1"/>
+    <col min="13828" max="13828" width="8.5546875" style="5" customWidth="1"/>
+    <col min="13829" max="13829" width="6.44140625" style="5" customWidth="1"/>
+    <col min="13830" max="13830" width="6.33203125" style="5" customWidth="1"/>
+    <col min="13831" max="13831" width="6.77734375" style="5" customWidth="1"/>
+    <col min="13832" max="13832" width="7.21875" style="5" customWidth="1"/>
+    <col min="13833" max="13833" width="8.6640625" style="5" customWidth="1"/>
+    <col min="13834" max="13835" width="4.6640625" style="5" customWidth="1"/>
+    <col min="13836" max="13836" width="11.44140625" style="5" customWidth="1"/>
+    <col min="13837" max="13837" width="4.88671875" style="5" customWidth="1"/>
+    <col min="13838" max="14080" width="7.5546875" style="5"/>
+    <col min="14081" max="14081" width="7" style="5" customWidth="1"/>
+    <col min="14082" max="14082" width="6.5546875" style="5" customWidth="1"/>
+    <col min="14083" max="14083" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14084" max="14084" width="8.5546875" style="5" customWidth="1"/>
+    <col min="14085" max="14085" width="6.44140625" style="5" customWidth="1"/>
+    <col min="14086" max="14086" width="6.33203125" style="5" customWidth="1"/>
+    <col min="14087" max="14087" width="6.77734375" style="5" customWidth="1"/>
+    <col min="14088" max="14088" width="7.21875" style="5" customWidth="1"/>
+    <col min="14089" max="14089" width="8.6640625" style="5" customWidth="1"/>
+    <col min="14090" max="14091" width="4.6640625" style="5" customWidth="1"/>
+    <col min="14092" max="14092" width="11.44140625" style="5" customWidth="1"/>
+    <col min="14093" max="14093" width="4.88671875" style="5" customWidth="1"/>
+    <col min="14094" max="14336" width="7.5546875" style="5"/>
+    <col min="14337" max="14337" width="7" style="5" customWidth="1"/>
+    <col min="14338" max="14338" width="6.5546875" style="5" customWidth="1"/>
+    <col min="14339" max="14339" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14340" max="14340" width="8.5546875" style="5" customWidth="1"/>
+    <col min="14341" max="14341" width="6.44140625" style="5" customWidth="1"/>
+    <col min="14342" max="14342" width="6.33203125" style="5" customWidth="1"/>
+    <col min="14343" max="14343" width="6.77734375" style="5" customWidth="1"/>
+    <col min="14344" max="14344" width="7.21875" style="5" customWidth="1"/>
+    <col min="14345" max="14345" width="8.6640625" style="5" customWidth="1"/>
+    <col min="14346" max="14347" width="4.6640625" style="5" customWidth="1"/>
+    <col min="14348" max="14348" width="11.44140625" style="5" customWidth="1"/>
+    <col min="14349" max="14349" width="4.88671875" style="5" customWidth="1"/>
+    <col min="14350" max="14592" width="7.5546875" style="5"/>
+    <col min="14593" max="14593" width="7" style="5" customWidth="1"/>
+    <col min="14594" max="14594" width="6.5546875" style="5" customWidth="1"/>
+    <col min="14595" max="14595" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14596" max="14596" width="8.5546875" style="5" customWidth="1"/>
+    <col min="14597" max="14597" width="6.44140625" style="5" customWidth="1"/>
+    <col min="14598" max="14598" width="6.33203125" style="5" customWidth="1"/>
+    <col min="14599" max="14599" width="6.77734375" style="5" customWidth="1"/>
+    <col min="14600" max="14600" width="7.21875" style="5" customWidth="1"/>
+    <col min="14601" max="14601" width="8.6640625" style="5" customWidth="1"/>
+    <col min="14602" max="14603" width="4.6640625" style="5" customWidth="1"/>
+    <col min="14604" max="14604" width="11.44140625" style="5" customWidth="1"/>
+    <col min="14605" max="14605" width="4.88671875" style="5" customWidth="1"/>
+    <col min="14606" max="14848" width="7.5546875" style="5"/>
+    <col min="14849" max="14849" width="7" style="5" customWidth="1"/>
+    <col min="14850" max="14850" width="6.5546875" style="5" customWidth="1"/>
+    <col min="14851" max="14851" width="6.6640625" style="5" customWidth="1"/>
+    <col min="14852" max="14852" width="8.5546875" style="5" customWidth="1"/>
+    <col min="14853" max="14853" width="6.44140625" style="5" customWidth="1"/>
+    <col min="14854" max="14854" width="6.33203125" style="5" customWidth="1"/>
+    <col min="14855" max="14855" width="6.77734375" style="5" customWidth="1"/>
+    <col min="14856" max="14856" width="7.21875" style="5" customWidth="1"/>
+    <col min="14857" max="14857" width="8.6640625" style="5" customWidth="1"/>
+    <col min="14858" max="14859" width="4.6640625" style="5" customWidth="1"/>
+    <col min="14860" max="14860" width="11.44140625" style="5" customWidth="1"/>
+    <col min="14861" max="14861" width="4.88671875" style="5" customWidth="1"/>
+    <col min="14862" max="15104" width="7.5546875" style="5"/>
+    <col min="15105" max="15105" width="7" style="5" customWidth="1"/>
+    <col min="15106" max="15106" width="6.5546875" style="5" customWidth="1"/>
+    <col min="15107" max="15107" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15108" max="15108" width="8.5546875" style="5" customWidth="1"/>
+    <col min="15109" max="15109" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15110" max="15110" width="6.33203125" style="5" customWidth="1"/>
+    <col min="15111" max="15111" width="6.77734375" style="5" customWidth="1"/>
+    <col min="15112" max="15112" width="7.21875" style="5" customWidth="1"/>
+    <col min="15113" max="15113" width="8.6640625" style="5" customWidth="1"/>
+    <col min="15114" max="15115" width="4.6640625" style="5" customWidth="1"/>
+    <col min="15116" max="15116" width="11.44140625" style="5" customWidth="1"/>
+    <col min="15117" max="15117" width="4.88671875" style="5" customWidth="1"/>
+    <col min="15118" max="15360" width="7.5546875" style="5"/>
+    <col min="15361" max="15361" width="7" style="5" customWidth="1"/>
+    <col min="15362" max="15362" width="6.5546875" style="5" customWidth="1"/>
+    <col min="15363" max="15363" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15364" max="15364" width="8.5546875" style="5" customWidth="1"/>
+    <col min="15365" max="15365" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15366" max="15366" width="6.33203125" style="5" customWidth="1"/>
+    <col min="15367" max="15367" width="6.77734375" style="5" customWidth="1"/>
+    <col min="15368" max="15368" width="7.21875" style="5" customWidth="1"/>
+    <col min="15369" max="15369" width="8.6640625" style="5" customWidth="1"/>
+    <col min="15370" max="15371" width="4.6640625" style="5" customWidth="1"/>
+    <col min="15372" max="15372" width="11.44140625" style="5" customWidth="1"/>
+    <col min="15373" max="15373" width="4.88671875" style="5" customWidth="1"/>
+    <col min="15374" max="15616" width="7.5546875" style="5"/>
+    <col min="15617" max="15617" width="7" style="5" customWidth="1"/>
+    <col min="15618" max="15618" width="6.5546875" style="5" customWidth="1"/>
+    <col min="15619" max="15619" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15620" max="15620" width="8.5546875" style="5" customWidth="1"/>
+    <col min="15621" max="15621" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15622" max="15622" width="6.33203125" style="5" customWidth="1"/>
+    <col min="15623" max="15623" width="6.77734375" style="5" customWidth="1"/>
+    <col min="15624" max="15624" width="7.21875" style="5" customWidth="1"/>
+    <col min="15625" max="15625" width="8.6640625" style="5" customWidth="1"/>
+    <col min="15626" max="15627" width="4.6640625" style="5" customWidth="1"/>
+    <col min="15628" max="15628" width="11.44140625" style="5" customWidth="1"/>
+    <col min="15629" max="15629" width="4.88671875" style="5" customWidth="1"/>
+    <col min="15630" max="15872" width="7.5546875" style="5"/>
+    <col min="15873" max="15873" width="7" style="5" customWidth="1"/>
+    <col min="15874" max="15874" width="6.5546875" style="5" customWidth="1"/>
+    <col min="15875" max="15875" width="6.6640625" style="5" customWidth="1"/>
+    <col min="15876" max="15876" width="8.5546875" style="5" customWidth="1"/>
+    <col min="15877" max="15877" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15878" max="15878" width="6.33203125" style="5" customWidth="1"/>
+    <col min="15879" max="15879" width="6.77734375" style="5" customWidth="1"/>
+    <col min="15880" max="15880" width="7.21875" style="5" customWidth="1"/>
+    <col min="15881" max="15881" width="8.6640625" style="5" customWidth="1"/>
+    <col min="15882" max="15883" width="4.6640625" style="5" customWidth="1"/>
+    <col min="15884" max="15884" width="11.44140625" style="5" customWidth="1"/>
+    <col min="15885" max="15885" width="4.88671875" style="5" customWidth="1"/>
+    <col min="15886" max="16128" width="7.5546875" style="5"/>
+    <col min="16129" max="16129" width="7" style="5" customWidth="1"/>
+    <col min="16130" max="16130" width="6.5546875" style="5" customWidth="1"/>
+    <col min="16131" max="16131" width="6.6640625" style="5" customWidth="1"/>
+    <col min="16132" max="16132" width="8.5546875" style="5" customWidth="1"/>
+    <col min="16133" max="16133" width="6.44140625" style="5" customWidth="1"/>
+    <col min="16134" max="16134" width="6.33203125" style="5" customWidth="1"/>
+    <col min="16135" max="16135" width="6.77734375" style="5" customWidth="1"/>
+    <col min="16136" max="16136" width="7.21875" style="5" customWidth="1"/>
+    <col min="16137" max="16137" width="8.6640625" style="5" customWidth="1"/>
+    <col min="16138" max="16139" width="4.6640625" style="5" customWidth="1"/>
+    <col min="16140" max="16140" width="11.44140625" style="5" customWidth="1"/>
+    <col min="16141" max="16141" width="4.88671875" style="5" customWidth="1"/>
+    <col min="16142" max="16384" width="7.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" thickTop="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <v>45205</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="17" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23" t="s">
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="25" t="s">
+      <c r="L5" s="106"/>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31" t="s">
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="33" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="107"/>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="112"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:18" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="25" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="28" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="31" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="Q8" s="5" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="Q8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A9" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="52"/>
-    </row>
-    <row r="10" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.5" x14ac:dyDescent="0.65">
-      <c r="A11" s="56" t="s">
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="121"/>
+      <c r="N9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="9" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.399999999999999">
+      <c r="A11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="D11" s="58" t="s">
+      <c r="B11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="6" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="63"/>
-    </row>
-    <row r="12" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="A12" s="56" t="s">
+      <c r="L11" s="83"/>
+    </row>
+    <row r="12" spans="1:18" ht="29.25" customHeight="1">
+      <c r="A12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="D12" s="64" t="s">
+      <c r="B12" s="31"/>
+      <c r="D12" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="54" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
-    </row>
-    <row r="13" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="70"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
-    </row>
-    <row r="14" spans="1:18" s="78" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="71" t="s">
+      <c r="J12" s="28"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="1:18" ht="9" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:18" s="45" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="74" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="72" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-    </row>
-    <row r="15" spans="1:18" s="78" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="71" t="s">
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:18" s="45" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="79" t="s">
+      <c r="J15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="81" t="s">
+      <c r="L15" s="48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="78" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="82" t="s">
+    <row r="16" spans="1:18" s="45" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="84" t="s">
+      <c r="H16" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="85" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="53" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="90"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="94"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="94"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="91"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="94"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="94"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="94"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="94"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="94"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="94"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="94"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="91"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="94"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="94"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="91"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="94"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="91"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="94"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="91"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="94"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="95" t="s">
+    <row r="17" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="57"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="61"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="61"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="61"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="61"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="61"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="61"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="61"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="61"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="61"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="61"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A32" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="98"/>
-    </row>
-    <row r="33" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="99" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="65"/>
+    </row>
+    <row r="33" spans="1:42" ht="21.75" customHeight="1">
+      <c r="A33" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="101"/>
-    </row>
-    <row r="34" spans="1:42" ht="8.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="53"/>
-      <c r="L34" s="102"/>
-    </row>
-    <row r="35" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="L35" s="55"/>
-    </row>
-    <row r="36" spans="1:42" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A36" s="103"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="68"/>
+    </row>
+    <row r="34" spans="1:42" ht="8.25" customHeight="1">
+      <c r="A34" s="27"/>
+      <c r="L34" s="69"/>
+    </row>
+    <row r="35" spans="1:42" ht="9.75" customHeight="1">
+      <c r="A35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="L35" s="29"/>
+    </row>
+    <row r="36" spans="1:42" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109" t="s">
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="111"/>
-    </row>
-    <row r="37" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="53"/>
-      <c r="D37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="L37" s="102"/>
-    </row>
-    <row r="38" spans="1:42" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A38" s="112"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-      <c r="L38" s="115"/>
-    </row>
-    <row r="39" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.65">
-      <c r="A39" s="5" t="s">
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="91"/>
+    </row>
+    <row r="37" spans="1:42" ht="19.5" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="D37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:42" ht="24" customHeight="1" thickBot="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="79"/>
+    </row>
+    <row r="39" spans="1:42" ht="21" thickTop="1">
+      <c r="A39" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="116"/>
-      <c r="J39" s="117" t="s">
+      <c r="I39" s="80"/>
+      <c r="J39" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="118"/>
-      <c r="L39" s="119"/>
-      <c r="AJ39" s="120"/>
-      <c r="AK39" s="120"/>
-      <c r="AL39" s="120"/>
-      <c r="AM39" s="120"/>
-      <c r="AN39" s="120"/>
-      <c r="AO39" s="120"/>
-      <c r="AP39" s="120"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="94"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="81"/>
+      <c r="AL39" s="81"/>
+      <c r="AM39" s="81"/>
+      <c r="AN39" s="81"/>
+      <c r="AO39" s="81"/>
+      <c r="AP39" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
